--- a/Fall Flows 2023 Sept25 Draft.xlsx
+++ b/Fall Flows 2023 Sept25 Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/lelliott_usbr_gov/Documents/Documents/GitHub/Fall_Flow_Redd_Dewatering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C71633B-E44D-4C1D-9F12-735327A03421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C118A827-DA0D-4A86-AE9A-8FABD049065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21195" yWindow="2220" windowWidth="21600" windowHeight="11040" tabRatio="838" activeTab="5" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="5" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="KES Flow all" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="128">
   <si>
     <t>Keswick Flows in cfs</t>
   </si>
@@ -497,9 +497,6 @@
     <t xml:space="preserve">  Alt 1b = Update of alternative 1a based on August 50% Exceedance as an updated template. Does not follow ramping rates. Developed on August 15, 2023.</t>
   </si>
   <si>
-    <t>Alt 1c = draft September 50% forecast. Developed 9/28/2023</t>
-  </si>
-  <si>
     <t>Alt 2a = Initial rough template scenario put together based on July 90% exceedance forecast. Does not follow ramping rates. Developed on 8/4/2023. Suggest eliminating from consideration because information is outdated.</t>
   </si>
   <si>
@@ -544,6 +541,18 @@
   <si>
     <t>Alt 3k = Developed to avoid dewatering winter-run redds while following operations goals described at 9/12/23 USST meeting (100-200 cfs drops per day, avoiding large drops expected to cause dewatering on days that the shallow redd monitoring crews cannot be in the field, holding at 5000 cfs over the winter)  and redd dewatering flows updated to use KES flows instead of KWK flows. Developed on 9/19/23.</t>
   </si>
+  <si>
+    <t>Alt 3l = Developed to reflect operations decisions made at 9/26/23 USST meeting (drop to 6400 cfs) and reflecting the possibility of returning to 6500 cfs in mid-October for rice decomp needs, and then ramping down to 5000 cfs in early November. Developed 9/26/23.</t>
+  </si>
+  <si>
+    <t>Alt 3m = Developed to reflect operations decisions made at 9/26/23 USST meeting (drop to 6400 cfs) but with further reductions to 6100 cfs, and reflecting the possibility of returning to 6500 cfs in mid-October for rice decomp needs, and then ramping down to 5000 cfs in early November. Developed 9/26/23.</t>
+  </si>
+  <si>
+    <t>Alt 1c = draft September 50% forecast. Developed 9/26/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt 2E = draft September 90% forecast. Developed 9/13/23.  </t>
+  </si>
 </sst>
 </file>
 
@@ -553,7 +562,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +808,13 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1611,7 +1627,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2023,6 +2039,93 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2030,12 +2133,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,86 +2177,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="128">
@@ -39287,104 +39310,104 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="182" t="s">
+      <c r="I1" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="J1" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="185" t="s">
+      <c r="K1" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="169" t="s">
+      <c r="L1" s="198" t="s">
         <v>64</v>
       </c>
       <c r="M1" s="168"/>
       <c r="N1" s="168"/>
-      <c r="O1" s="190" t="s">
+      <c r="O1" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="193" t="s">
+      <c r="P1" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
-      <c r="AH1" s="194"/>
-      <c r="AI1" s="194"/>
-      <c r="AJ1" s="194"/>
-      <c r="AK1" s="194"/>
-      <c r="AL1" s="194"/>
-      <c r="AM1" s="194"/>
-      <c r="AN1" s="194"/>
-      <c r="AO1" s="194"/>
-      <c r="AP1" s="194"/>
-      <c r="AQ1" s="194"/>
-      <c r="AR1" s="194"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="185"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="185"/>
+      <c r="AL1" s="185"/>
+      <c r="AM1" s="185"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="185"/>
+      <c r="AP1" s="185"/>
+      <c r="AQ1" s="185"/>
+      <c r="AR1" s="185"/>
       <c r="AS1" s="168"/>
       <c r="AT1" s="168"/>
       <c r="AU1" s="168"/>
       <c r="AV1" s="168"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="173"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="170"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="199"/>
       <c r="M2" s="168"/>
       <c r="N2" s="168"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="195" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="172" t="s">
+      <c r="Q2" s="187"/>
+      <c r="R2" s="190" t="s">
         <v>67</v>
       </c>
       <c r="S2" s="82">
@@ -39477,24 +39500,24 @@
       <c r="AV2" s="168"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="170"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="199"/>
       <c r="M3" s="168"/>
       <c r="N3" s="168"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="173"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="191"/>
       <c r="S3" s="88">
         <v>45069</v>
       </c>
@@ -39585,46 +39608,46 @@
       <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="170"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="199"/>
       <c r="M4" s="168"/>
       <c r="N4" s="168"/>
-      <c r="O4" s="191"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="199" t="s">
+      <c r="O4" s="182"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="191"/>
+      <c r="S4" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="199"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="199"/>
-      <c r="W4" s="199"/>
-      <c r="X4" s="199"/>
-      <c r="Y4" s="199"/>
-      <c r="Z4" s="199"/>
-      <c r="AA4" s="199"/>
-      <c r="AB4" s="199"/>
-      <c r="AC4" s="199"/>
-      <c r="AD4" s="199"/>
-      <c r="AE4" s="199"/>
-      <c r="AF4" s="199"/>
-      <c r="AG4" s="199"/>
-      <c r="AH4" s="199"/>
-      <c r="AI4" s="199"/>
-      <c r="AJ4" s="199"/>
-      <c r="AK4" s="199"/>
-      <c r="AL4" s="199"/>
+      <c r="T4" s="192"/>
+      <c r="U4" s="192"/>
+      <c r="V4" s="192"/>
+      <c r="W4" s="192"/>
+      <c r="X4" s="192"/>
+      <c r="Y4" s="192"/>
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="192"/>
+      <c r="AB4" s="192"/>
+      <c r="AC4" s="192"/>
+      <c r="AD4" s="192"/>
+      <c r="AE4" s="192"/>
+      <c r="AF4" s="192"/>
+      <c r="AG4" s="192"/>
+      <c r="AH4" s="192"/>
+      <c r="AI4" s="192"/>
+      <c r="AJ4" s="192"/>
+      <c r="AK4" s="192"/>
+      <c r="AL4" s="192"/>
       <c r="AM4" s="168"/>
       <c r="AN4" s="168"/>
       <c r="AO4" s="168"/>
@@ -39637,28 +39660,28 @@
       <c r="AV4" s="168"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="171"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="200"/>
       <c r="M5" s="168"/>
       <c r="N5" s="168"/>
-      <c r="O5" s="192"/>
+      <c r="O5" s="183"/>
       <c r="P5" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="196" t="s">
+      <c r="Q5" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="200"/>
+      <c r="R5" s="193"/>
       <c r="S5" s="96">
         <v>13000</v>
       </c>
@@ -39793,10 +39816,10 @@
       <c r="P6" s="110">
         <v>4001</v>
       </c>
-      <c r="Q6" s="201">
+      <c r="Q6" s="194">
         <v>15</v>
       </c>
-      <c r="R6" s="202"/>
+      <c r="R6" s="195"/>
       <c r="S6" s="111">
         <v>15</v>
       </c>
@@ -39935,10 +39958,10 @@
       <c r="P7" s="114">
         <v>4002</v>
       </c>
-      <c r="Q7" s="203">
+      <c r="Q7" s="196">
         <v>37</v>
       </c>
-      <c r="R7" s="204"/>
+      <c r="R7" s="197"/>
       <c r="S7" s="103" t="s">
         <v>47</v>
       </c>
@@ -40062,7 +40085,7 @@
       <c r="K8" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="205" t="s">
+      <c r="L8" s="179" t="s">
         <v>76</v>
       </c>
       <c r="M8" s="113" t="s">
@@ -40077,10 +40100,10 @@
       <c r="P8" s="128">
         <v>4003</v>
       </c>
-      <c r="Q8" s="188">
+      <c r="Q8" s="172">
         <v>18</v>
       </c>
-      <c r="R8" s="189"/>
+      <c r="R8" s="173"/>
       <c r="S8" s="129" t="s">
         <v>47</v>
       </c>
@@ -40204,7 +40227,7 @@
       <c r="K9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="206"/>
+      <c r="L9" s="180"/>
       <c r="M9" s="113" t="s">
         <v>47</v>
       </c>
@@ -40217,10 +40240,10 @@
       <c r="P9" s="128">
         <v>4004</v>
       </c>
-      <c r="Q9" s="207">
+      <c r="Q9" s="170">
         <v>19</v>
       </c>
-      <c r="R9" s="208"/>
+      <c r="R9" s="171"/>
       <c r="S9" s="129" t="s">
         <v>47</v>
       </c>
@@ -40359,10 +40382,10 @@
       <c r="P10" s="128">
         <v>4005</v>
       </c>
-      <c r="Q10" s="188">
+      <c r="Q10" s="172">
         <v>17</v>
       </c>
-      <c r="R10" s="189"/>
+      <c r="R10" s="173"/>
       <c r="S10" s="129" t="s">
         <v>47</v>
       </c>
@@ -40501,10 +40524,10 @@
       <c r="P11" s="128">
         <v>4006</v>
       </c>
-      <c r="Q11" s="207">
+      <c r="Q11" s="170">
         <v>15</v>
       </c>
-      <c r="R11" s="208"/>
+      <c r="R11" s="171"/>
       <c r="S11" s="129" t="s">
         <v>47</v>
       </c>
@@ -40643,10 +40666,10 @@
       <c r="P12" s="128">
         <v>4007</v>
       </c>
-      <c r="Q12" s="188">
+      <c r="Q12" s="172">
         <v>54</v>
       </c>
-      <c r="R12" s="189"/>
+      <c r="R12" s="173"/>
       <c r="S12" s="129" t="s">
         <v>47</v>
       </c>
@@ -40785,10 +40808,10 @@
       <c r="P13" s="128">
         <v>4008</v>
       </c>
-      <c r="Q13" s="207">
+      <c r="Q13" s="170">
         <v>18</v>
       </c>
-      <c r="R13" s="208"/>
+      <c r="R13" s="171"/>
       <c r="S13" s="129" t="s">
         <v>47</v>
       </c>
@@ -40927,10 +40950,10 @@
       <c r="P14" s="128">
         <v>4009</v>
       </c>
-      <c r="Q14" s="188">
+      <c r="Q14" s="172">
         <v>13</v>
       </c>
-      <c r="R14" s="189"/>
+      <c r="R14" s="173"/>
       <c r="S14" s="129" t="s">
         <v>47</v>
       </c>
@@ -41036,7 +41059,7 @@
       <c r="E15" s="118">
         <v>12</v>
       </c>
-      <c r="F15" s="214"/>
+      <c r="F15" s="169"/>
       <c r="G15" s="122">
         <v>10673</v>
       </c>
@@ -41067,10 +41090,10 @@
       <c r="P15" s="128">
         <v>4010</v>
       </c>
-      <c r="Q15" s="207">
+      <c r="Q15" s="170">
         <v>12</v>
       </c>
-      <c r="R15" s="208"/>
+      <c r="R15" s="171"/>
       <c r="S15" s="129" t="s">
         <v>47</v>
       </c>
@@ -41211,10 +41234,10 @@
       <c r="P16" s="128">
         <v>4011</v>
       </c>
-      <c r="Q16" s="188">
+      <c r="Q16" s="172">
         <v>11</v>
       </c>
-      <c r="R16" s="189"/>
+      <c r="R16" s="173"/>
       <c r="S16" s="129" t="s">
         <v>47</v>
       </c>
@@ -41353,10 +41376,10 @@
       <c r="P17" s="128">
         <v>4012</v>
       </c>
-      <c r="Q17" s="207">
+      <c r="Q17" s="170">
         <v>17</v>
       </c>
-      <c r="R17" s="208"/>
+      <c r="R17" s="171"/>
       <c r="S17" s="129" t="s">
         <v>47</v>
       </c>
@@ -41495,10 +41518,10 @@
       <c r="P18" s="128">
         <v>4013</v>
       </c>
-      <c r="Q18" s="188">
+      <c r="Q18" s="172">
         <v>17</v>
       </c>
-      <c r="R18" s="189"/>
+      <c r="R18" s="173"/>
       <c r="S18" s="129" t="s">
         <v>47</v>
       </c>
@@ -41637,10 +41660,10 @@
       <c r="P19" s="128">
         <v>4014</v>
       </c>
-      <c r="Q19" s="207">
+      <c r="Q19" s="170">
         <v>24</v>
       </c>
-      <c r="R19" s="208"/>
+      <c r="R19" s="171"/>
       <c r="S19" s="129" t="s">
         <v>47</v>
       </c>
@@ -41779,10 +41802,10 @@
       <c r="P20" s="128">
         <v>4015</v>
       </c>
-      <c r="Q20" s="188">
+      <c r="Q20" s="172">
         <v>49</v>
       </c>
-      <c r="R20" s="189"/>
+      <c r="R20" s="173"/>
       <c r="S20" s="129" t="s">
         <v>47</v>
       </c>
@@ -41921,10 +41944,10 @@
       <c r="P21" s="128">
         <v>4016</v>
       </c>
-      <c r="Q21" s="207">
+      <c r="Q21" s="170">
         <v>34</v>
       </c>
-      <c r="R21" s="208"/>
+      <c r="R21" s="171"/>
       <c r="S21" s="129" t="s">
         <v>47</v>
       </c>
@@ -42063,10 +42086,10 @@
       <c r="P22" s="128">
         <v>4017</v>
       </c>
-      <c r="Q22" s="188">
+      <c r="Q22" s="172">
         <v>19</v>
       </c>
-      <c r="R22" s="189"/>
+      <c r="R22" s="173"/>
       <c r="S22" s="129" t="s">
         <v>47</v>
       </c>
@@ -42205,10 +42228,10 @@
       <c r="P23" s="128">
         <v>4018</v>
       </c>
-      <c r="Q23" s="207">
+      <c r="Q23" s="170">
         <v>26</v>
       </c>
-      <c r="R23" s="208"/>
+      <c r="R23" s="171"/>
       <c r="S23" s="129" t="s">
         <v>47</v>
       </c>
@@ -42347,10 +42370,10 @@
       <c r="P24" s="128">
         <v>4019</v>
       </c>
-      <c r="Q24" s="188">
+      <c r="Q24" s="172">
         <v>39</v>
       </c>
-      <c r="R24" s="189"/>
+      <c r="R24" s="173"/>
       <c r="S24" s="129" t="s">
         <v>47</v>
       </c>
@@ -42489,10 +42512,10 @@
       <c r="P25" s="128">
         <v>4020</v>
       </c>
-      <c r="Q25" s="207">
+      <c r="Q25" s="170">
         <v>35</v>
       </c>
-      <c r="R25" s="208"/>
+      <c r="R25" s="171"/>
       <c r="S25" s="129" t="s">
         <v>47</v>
       </c>
@@ -42631,10 +42654,10 @@
       <c r="P26" s="128">
         <v>4021</v>
       </c>
-      <c r="Q26" s="188">
+      <c r="Q26" s="172">
         <v>37</v>
       </c>
-      <c r="R26" s="189"/>
+      <c r="R26" s="173"/>
       <c r="S26" s="129" t="s">
         <v>47</v>
       </c>
@@ -42773,10 +42796,10 @@
       <c r="P27" s="128">
         <v>4022</v>
       </c>
-      <c r="Q27" s="207">
+      <c r="Q27" s="170">
         <v>32</v>
       </c>
-      <c r="R27" s="208"/>
+      <c r="R27" s="171"/>
       <c r="S27" s="129" t="s">
         <v>47</v>
       </c>
@@ -42915,10 +42938,10 @@
       <c r="P28" s="128">
         <v>4023</v>
       </c>
-      <c r="Q28" s="188">
+      <c r="Q28" s="172">
         <v>21</v>
       </c>
-      <c r="R28" s="189"/>
+      <c r="R28" s="173"/>
       <c r="S28" s="129" t="s">
         <v>47</v>
       </c>
@@ -43057,10 +43080,10 @@
       <c r="P29" s="128">
         <v>4024</v>
       </c>
-      <c r="Q29" s="207">
+      <c r="Q29" s="170">
         <v>18</v>
       </c>
-      <c r="R29" s="208"/>
+      <c r="R29" s="171"/>
       <c r="S29" s="129" t="s">
         <v>47</v>
       </c>
@@ -43166,7 +43189,7 @@
       <c r="E30" s="118">
         <v>10</v>
       </c>
-      <c r="F30" s="214"/>
+      <c r="F30" s="169"/>
       <c r="G30" s="122">
         <v>11128</v>
       </c>
@@ -43197,10 +43220,10 @@
       <c r="P30" s="128">
         <v>4025</v>
       </c>
-      <c r="Q30" s="188">
+      <c r="Q30" s="172">
         <v>10</v>
       </c>
-      <c r="R30" s="189"/>
+      <c r="R30" s="173"/>
       <c r="S30" s="129" t="s">
         <v>47</v>
       </c>
@@ -43341,10 +43364,10 @@
       <c r="P31" s="152">
         <v>4026</v>
       </c>
-      <c r="Q31" s="209">
+      <c r="Q31" s="174">
         <v>13</v>
       </c>
-      <c r="R31" s="210"/>
+      <c r="R31" s="175"/>
       <c r="S31" s="153" t="s">
         <v>47</v>
       </c>
@@ -45092,11 +45115,11 @@
       <c r="I64" s="168"/>
       <c r="J64" s="159"/>
       <c r="K64" s="168"/>
-      <c r="L64" s="211" t="s">
+      <c r="L64" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="M64" s="211"/>
-      <c r="N64" s="211"/>
+      <c r="M64" s="176"/>
+      <c r="N64" s="176"/>
       <c r="O64" s="168"/>
       <c r="P64" s="168"/>
       <c r="Q64" s="168"/>
@@ -45144,9 +45167,9 @@
       <c r="I65" s="168"/>
       <c r="J65" s="159"/>
       <c r="K65" s="168"/>
-      <c r="L65" s="212"/>
-      <c r="M65" s="212"/>
-      <c r="N65" s="212"/>
+      <c r="L65" s="177"/>
+      <c r="M65" s="177"/>
+      <c r="N65" s="177"/>
       <c r="O65" s="168"/>
       <c r="P65" s="168"/>
       <c r="Q65" s="168"/>
@@ -45194,9 +45217,9 @@
       <c r="I66" s="168"/>
       <c r="J66" s="159"/>
       <c r="K66" s="168"/>
-      <c r="L66" s="212"/>
-      <c r="M66" s="212"/>
-      <c r="N66" s="212"/>
+      <c r="L66" s="177"/>
+      <c r="M66" s="177"/>
+      <c r="N66" s="177"/>
       <c r="O66" s="168"/>
       <c r="P66" s="168"/>
       <c r="Q66" s="168"/>
@@ -45244,9 +45267,9 @@
       <c r="I67" s="168"/>
       <c r="J67" s="159"/>
       <c r="K67" s="168"/>
-      <c r="L67" s="212"/>
-      <c r="M67" s="212"/>
-      <c r="N67" s="212"/>
+      <c r="L67" s="177"/>
+      <c r="M67" s="177"/>
+      <c r="N67" s="177"/>
       <c r="O67" s="168"/>
       <c r="P67" s="168"/>
       <c r="Q67" s="168"/>
@@ -45294,9 +45317,9 @@
       <c r="I68" s="168"/>
       <c r="J68" s="159"/>
       <c r="K68" s="168"/>
-      <c r="L68" s="213"/>
-      <c r="M68" s="213"/>
-      <c r="N68" s="213"/>
+      <c r="L68" s="178"/>
+      <c r="M68" s="178"/>
+      <c r="N68" s="178"/>
       <c r="O68" s="168"/>
       <c r="P68" s="168"/>
       <c r="Q68" s="168"/>
@@ -45484,16 +45507,26 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="L64:N68"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="L1:L5"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:F5"/>
+    <mergeCell ref="G1:G5"/>
+    <mergeCell ref="H1:H5"/>
+    <mergeCell ref="I1:I5"/>
+    <mergeCell ref="J1:J5"/>
+    <mergeCell ref="K1:K5"/>
+    <mergeCell ref="O1:O5"/>
+    <mergeCell ref="P1:AR1"/>
+    <mergeCell ref="P2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S4:AL4"/>
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
@@ -45510,26 +45543,16 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O1:O5"/>
-    <mergeCell ref="P1:AR1"/>
-    <mergeCell ref="P2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S4:AL4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="L1:L5"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:C5"/>
-    <mergeCell ref="D1:D5"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="F1:F5"/>
-    <mergeCell ref="G1:G5"/>
-    <mergeCell ref="H1:H5"/>
-    <mergeCell ref="I1:I5"/>
-    <mergeCell ref="J1:J5"/>
-    <mergeCell ref="K1:K5"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="L64:N68"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45552,10 +45575,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA370860-48CD-4B92-B790-82066B2C7AEE}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45624,11 +45647,11 @@
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:2" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="216" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="217"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -45636,85 +45659,101 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="216" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="A19" s="13"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>117</v>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>119</v>
+      <c r="A24" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>120</v>
+      <c r="A25" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>121</v>
+      <c r="A26" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>122</v>
+      <c r="A27" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>123</v>
+      <c r="A28" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="215" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="215" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Fall Flows 2023 Sept25 Draft.xlsx
+++ b/Fall Flows 2023 Sept25 Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/lelliott_usbr_gov/Documents/Documents/GitHub/Fall_Flow_Redd_Dewatering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C118A827-DA0D-4A86-AE9A-8FABD049065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C118A827-DA0D-4A86-AE9A-8FABD049065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084E45CA-0EEA-4F1F-8437-67DD9C1EB56B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="5" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
+    <workbookView minimized="1" xWindow="-25860" yWindow="2805" windowWidth="22590" windowHeight="11040" tabRatio="838" xr2:uid="{8B6B0201-DD1B-4D0A-8FA2-1793C828B1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="KES Flow all" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="130">
   <si>
     <t>Keswick Flows in cfs</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t xml:space="preserve">Alt 2E = draft September 90% forecast. Developed 9/13/23.  </t>
+  </si>
+  <si>
+    <t>Alt 3l</t>
+  </si>
+  <si>
+    <t>Alt 3m</t>
   </si>
 </sst>
 </file>
@@ -2042,77 +2048,12 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2133,6 +2074,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2177,12 +2124,71 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="128">
@@ -13646,7 +13652,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'KES Flow all'!$V$3:$V$215</c:f>
+              <c:f>'KES Flow all'!$X$3:$X$215</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="213"/>
@@ -13819,7 +13825,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>10000000</c:v>
@@ -20237,7 +20243,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8652164" cy="6276109"/>
+    <xdr:ext cx="8659091" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -20270,7 +20276,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6290733"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -20882,13 +20888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF913D-D65F-410C-AA01-380ED7A717E6}">
-  <dimension ref="A1:V272"/>
+  <dimension ref="A1:Z272"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E246"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20909,17 +20915,18 @@
     <col min="15" max="15" width="6.5703125" style="18" hidden="1" customWidth="1"/>
     <col min="16" max="18" width="9.85546875" style="18" hidden="1" customWidth="1"/>
     <col min="19" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="18"/>
+    <col min="22" max="23" width="8.85546875" style="18"/>
+    <col min="24" max="24" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -20983,11 +20990,17 @@
       <c r="U2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <f t="shared" ref="A3:A32" si="0">A4-1</f>
         <v>45139</v>
@@ -21052,12 +21065,18 @@
       <c r="U3" s="69">
         <v>10851</v>
       </c>
-      <c r="V3" s="29">
-        <f t="shared" ref="V3:V66" ca="1" si="1">IF(TODAY()&gt;A3,0,10000000)</f>
+      <c r="V3">
+        <v>10851</v>
+      </c>
+      <c r="W3">
+        <v>10851</v>
+      </c>
+      <c r="X3" s="29">
+        <f t="shared" ref="X3:X66" ca="1" si="1">IF(TODAY()&gt;A3,0,10000000)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <f t="shared" si="0"/>
         <v>45140</v>
@@ -21126,12 +21145,18 @@
       <c r="U4" s="69">
         <v>10781</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4">
+        <v>10781</v>
+      </c>
+      <c r="W4">
+        <v>10781</v>
+      </c>
+      <c r="X4" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <f t="shared" si="0"/>
         <v>45141</v>
@@ -21200,12 +21225,18 @@
       <c r="U5" s="69">
         <v>10567</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5">
+        <v>10567</v>
+      </c>
+      <c r="W5">
+        <v>10567</v>
+      </c>
+      <c r="X5" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <f t="shared" si="0"/>
         <v>45142</v>
@@ -21274,12 +21305,18 @@
       <c r="U6" s="69">
         <v>10603</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6">
+        <v>10603</v>
+      </c>
+      <c r="W6">
+        <v>10603</v>
+      </c>
+      <c r="X6" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>45143</v>
@@ -21348,12 +21385,18 @@
       <c r="U7" s="69">
         <v>10588</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7">
+        <v>10588</v>
+      </c>
+      <c r="W7">
+        <v>10588</v>
+      </c>
+      <c r="X7" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>45144</v>
@@ -21422,12 +21465,18 @@
       <c r="U8" s="69">
         <v>10530</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8">
+        <v>10530</v>
+      </c>
+      <c r="W8">
+        <v>10530</v>
+      </c>
+      <c r="X8" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <f t="shared" si="0"/>
         <v>45145</v>
@@ -21496,12 +21545,18 @@
       <c r="U9" s="69">
         <v>10497</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9">
+        <v>10497</v>
+      </c>
+      <c r="W9">
+        <v>10497</v>
+      </c>
+      <c r="X9" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>45146</v>
@@ -21570,12 +21625,18 @@
       <c r="U10" s="69">
         <v>10450</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10">
+        <v>10450</v>
+      </c>
+      <c r="W10">
+        <v>10450</v>
+      </c>
+      <c r="X10" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>45147</v>
@@ -21644,12 +21705,18 @@
       <c r="U11" s="69">
         <v>10492</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11">
+        <v>10492</v>
+      </c>
+      <c r="W11">
+        <v>10492</v>
+      </c>
+      <c r="X11" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>45148</v>
@@ -21718,12 +21785,18 @@
       <c r="U12" s="69">
         <v>10284</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12">
+        <v>10284</v>
+      </c>
+      <c r="W12">
+        <v>10284</v>
+      </c>
+      <c r="X12" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>45149</v>
@@ -21792,12 +21865,18 @@
       <c r="U13" s="69">
         <v>10242</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13">
+        <v>10242</v>
+      </c>
+      <c r="W13">
+        <v>10242</v>
+      </c>
+      <c r="X13" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>45150</v>
@@ -21866,12 +21945,18 @@
       <c r="U14" s="69">
         <v>10243</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14">
+        <v>10243</v>
+      </c>
+      <c r="W14">
+        <v>10243</v>
+      </c>
+      <c r="X14" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>45151</v>
@@ -21940,12 +22025,18 @@
       <c r="U15" s="69">
         <v>10241</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15">
+        <v>10241</v>
+      </c>
+      <c r="W15">
+        <v>10241</v>
+      </c>
+      <c r="X15" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>45152</v>
@@ -22014,12 +22105,18 @@
       <c r="U16" s="69">
         <v>10240</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16">
+        <v>10240</v>
+      </c>
+      <c r="W16">
+        <v>10240</v>
+      </c>
+      <c r="X16" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>45153</v>
@@ -22088,12 +22185,18 @@
       <c r="U17" s="71">
         <v>10236</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17">
+        <v>10236</v>
+      </c>
+      <c r="W17">
+        <v>10236</v>
+      </c>
+      <c r="X17" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>45154</v>
@@ -22163,12 +22266,18 @@
       <c r="U18" s="71">
         <v>10054</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18">
+        <v>10054</v>
+      </c>
+      <c r="W18">
+        <v>10054</v>
+      </c>
+      <c r="X18" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>45155</v>
@@ -22237,12 +22346,18 @@
       <c r="U19" s="71">
         <v>10012</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19">
+        <v>10012</v>
+      </c>
+      <c r="W19">
+        <v>10012</v>
+      </c>
+      <c r="X19" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>45156</v>
@@ -22314,12 +22429,18 @@
       <c r="U20" s="71">
         <v>9944</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20">
+        <v>9944</v>
+      </c>
+      <c r="W20">
+        <v>9944</v>
+      </c>
+      <c r="X20" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>45157</v>
@@ -22389,12 +22510,18 @@
       <c r="U21" s="71">
         <v>9563</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21">
+        <v>9563</v>
+      </c>
+      <c r="W21">
+        <v>9563</v>
+      </c>
+      <c r="X21" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>45158</v>
@@ -22466,12 +22593,18 @@
       <c r="U22" s="71">
         <v>9644</v>
       </c>
-      <c r="V22" s="29">
+      <c r="V22">
+        <v>9644</v>
+      </c>
+      <c r="W22">
+        <v>9644</v>
+      </c>
+      <c r="X22" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>45159</v>
@@ -22543,12 +22676,18 @@
       <c r="U23" s="71">
         <v>9613</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23">
+        <v>9613</v>
+      </c>
+      <c r="W23">
+        <v>9613</v>
+      </c>
+      <c r="X23" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>45160</v>
@@ -22619,12 +22758,18 @@
       <c r="U24" s="71">
         <v>9253</v>
       </c>
-      <c r="V24" s="29">
+      <c r="V24">
+        <v>9253</v>
+      </c>
+      <c r="W24">
+        <v>9253</v>
+      </c>
+      <c r="X24" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>45161</v>
@@ -22695,12 +22840,18 @@
       <c r="U25" s="71">
         <v>9111</v>
       </c>
-      <c r="V25" s="29">
+      <c r="V25">
+        <v>9111</v>
+      </c>
+      <c r="W25">
+        <v>9111</v>
+      </c>
+      <c r="X25" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>45162</v>
@@ -22770,12 +22921,18 @@
       <c r="U26" s="71">
         <v>9104</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26">
+        <v>9104</v>
+      </c>
+      <c r="W26">
+        <v>9104</v>
+      </c>
+      <c r="X26" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>45163</v>
@@ -22845,12 +23002,18 @@
       <c r="U27" s="71">
         <v>9109</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27">
+        <v>9109</v>
+      </c>
+      <c r="W27">
+        <v>9109</v>
+      </c>
+      <c r="X27" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>45164</v>
@@ -22920,12 +23083,18 @@
       <c r="U28" s="71">
         <v>9110</v>
       </c>
-      <c r="V28" s="29">
+      <c r="V28">
+        <v>9110</v>
+      </c>
+      <c r="W28">
+        <v>9110</v>
+      </c>
+      <c r="X28" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>45165</v>
@@ -22995,12 +23164,18 @@
       <c r="U29" s="71">
         <v>9102</v>
       </c>
-      <c r="V29" s="29">
+      <c r="V29">
+        <v>9102</v>
+      </c>
+      <c r="W29">
+        <v>9102</v>
+      </c>
+      <c r="X29" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>45166</v>
@@ -23070,12 +23245,18 @@
       <c r="U30" s="71">
         <v>9107</v>
       </c>
-      <c r="V30" s="29">
+      <c r="V30">
+        <v>9107</v>
+      </c>
+      <c r="W30">
+        <v>9107</v>
+      </c>
+      <c r="X30" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>45167</v>
@@ -23145,12 +23326,18 @@
       <c r="U31" s="71">
         <v>9109</v>
       </c>
-      <c r="V31" s="29">
+      <c r="V31">
+        <v>9109</v>
+      </c>
+      <c r="W31">
+        <v>9109</v>
+      </c>
+      <c r="X31" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>45168</v>
@@ -23220,12 +23407,18 @@
       <c r="U32" s="71">
         <v>8898</v>
       </c>
-      <c r="V32" s="29">
+      <c r="V32">
+        <v>8898</v>
+      </c>
+      <c r="W32">
+        <v>8898</v>
+      </c>
+      <c r="X32" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <f>A34-1</f>
         <v>45169</v>
@@ -23295,12 +23488,18 @@
       <c r="U33" s="71">
         <v>8637</v>
       </c>
-      <c r="V33" s="29">
+      <c r="V33">
+        <v>8637</v>
+      </c>
+      <c r="W33">
+        <v>8637</v>
+      </c>
+      <c r="X33" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43">
         <v>45170</v>
       </c>
@@ -23365,12 +23564,18 @@
       <c r="U34" s="71">
         <v>8390</v>
       </c>
-      <c r="V34" s="29">
+      <c r="V34">
+        <v>8390</v>
+      </c>
+      <c r="W34">
+        <v>8390</v>
+      </c>
+      <c r="X34" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <f>A34+1</f>
         <v>45171</v>
@@ -23440,12 +23645,18 @@
       <c r="U35" s="71">
         <v>8217</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35">
+        <v>8217</v>
+      </c>
+      <c r="W35">
+        <v>8217</v>
+      </c>
+      <c r="X35" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43">
         <f t="shared" ref="A36:A99" si="36">A35+1</f>
         <v>45172</v>
@@ -23515,12 +23726,18 @@
       <c r="U36" s="71">
         <v>7989</v>
       </c>
-      <c r="V36" s="29">
+      <c r="V36">
+        <v>7989</v>
+      </c>
+      <c r="W36">
+        <v>7989</v>
+      </c>
+      <c r="X36" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43">
         <f t="shared" si="36"/>
         <v>45173</v>
@@ -23590,12 +23807,18 @@
       <c r="U37" s="71">
         <v>7993</v>
       </c>
-      <c r="V37" s="29">
+      <c r="V37">
+        <v>7993</v>
+      </c>
+      <c r="W37">
+        <v>7993</v>
+      </c>
+      <c r="X37" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43">
         <f t="shared" si="36"/>
         <v>45174</v>
@@ -23664,12 +23887,18 @@
       <c r="U38" s="71">
         <v>7995</v>
       </c>
-      <c r="V38" s="29">
+      <c r="V38">
+        <v>7995</v>
+      </c>
+      <c r="W38">
+        <v>7995</v>
+      </c>
+      <c r="X38" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="43">
         <f t="shared" si="36"/>
         <v>45175</v>
@@ -23738,12 +23967,18 @@
       <c r="U39" s="71">
         <v>8004</v>
       </c>
-      <c r="V39" s="29">
+      <c r="V39">
+        <v>8004</v>
+      </c>
+      <c r="W39">
+        <v>8004</v>
+      </c>
+      <c r="X39" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="43">
         <f t="shared" si="36"/>
         <v>45176</v>
@@ -23812,12 +24047,18 @@
       <c r="U40" s="71">
         <v>8017</v>
       </c>
-      <c r="V40" s="29">
+      <c r="V40">
+        <v>8017</v>
+      </c>
+      <c r="W40">
+        <v>8017</v>
+      </c>
+      <c r="X40" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
         <f t="shared" si="36"/>
         <v>45177</v>
@@ -23886,12 +24127,18 @@
       <c r="U41" s="71">
         <v>7896</v>
       </c>
-      <c r="V41" s="29">
+      <c r="V41">
+        <v>7896</v>
+      </c>
+      <c r="W41">
+        <v>7896</v>
+      </c>
+      <c r="X41" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="43">
         <f t="shared" si="36"/>
         <v>45178</v>
@@ -23960,12 +24207,18 @@
       <c r="U42" s="71">
         <v>7789</v>
       </c>
-      <c r="V42" s="29">
+      <c r="V42">
+        <v>7789</v>
+      </c>
+      <c r="W42">
+        <v>7789</v>
+      </c>
+      <c r="X42" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <f t="shared" si="36"/>
         <v>45179</v>
@@ -24034,12 +24287,18 @@
       <c r="U43" s="71">
         <v>7692</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43">
+        <v>7692</v>
+      </c>
+      <c r="W43">
+        <v>7692</v>
+      </c>
+      <c r="X43" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <f t="shared" si="36"/>
         <v>45180</v>
@@ -24108,12 +24367,18 @@
       <c r="U44" s="71">
         <v>7685</v>
       </c>
-      <c r="V44" s="29">
+      <c r="V44">
+        <v>7685</v>
+      </c>
+      <c r="W44">
+        <v>7685</v>
+      </c>
+      <c r="X44" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
         <f t="shared" si="36"/>
         <v>45181</v>
@@ -24182,12 +24447,18 @@
       <c r="U45" s="71">
         <v>7685</v>
       </c>
-      <c r="V45" s="29">
+      <c r="V45">
+        <v>7685</v>
+      </c>
+      <c r="W45">
+        <v>7685</v>
+      </c>
+      <c r="X45" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
         <f t="shared" si="36"/>
         <v>45182</v>
@@ -24256,12 +24527,18 @@
       <c r="U46" s="71">
         <v>7649</v>
       </c>
-      <c r="V46" s="29">
+      <c r="V46">
+        <v>7649</v>
+      </c>
+      <c r="W46">
+        <v>7649</v>
+      </c>
+      <c r="X46" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <f t="shared" si="36"/>
         <v>45183</v>
@@ -24330,12 +24607,18 @@
       <c r="U47" s="71">
         <v>7700</v>
       </c>
-      <c r="V47" s="29">
+      <c r="V47">
+        <v>7700</v>
+      </c>
+      <c r="W47">
+        <v>7700</v>
+      </c>
+      <c r="X47" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
         <f t="shared" si="36"/>
         <v>45184</v>
@@ -24404,12 +24687,18 @@
       <c r="U48" s="71">
         <v>7500</v>
       </c>
-      <c r="V48" s="29">
+      <c r="V48">
+        <v>7500</v>
+      </c>
+      <c r="W48">
+        <v>7500</v>
+      </c>
+      <c r="X48" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <f t="shared" si="36"/>
         <v>45185</v>
@@ -24478,12 +24767,18 @@
       <c r="U49" s="71">
         <v>7300</v>
       </c>
-      <c r="V49" s="29">
+      <c r="V49">
+        <v>7300</v>
+      </c>
+      <c r="W49">
+        <v>7300</v>
+      </c>
+      <c r="X49" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <f t="shared" si="36"/>
         <v>45186</v>
@@ -24552,12 +24847,18 @@
       <c r="U50" s="71">
         <v>7100</v>
       </c>
-      <c r="V50" s="29">
+      <c r="V50">
+        <v>7100</v>
+      </c>
+      <c r="W50">
+        <v>7100</v>
+      </c>
+      <c r="X50" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
         <f t="shared" si="36"/>
         <v>45187</v>
@@ -24626,12 +24927,18 @@
       <c r="U51" s="78">
         <v>7100</v>
       </c>
-      <c r="V51" s="29">
+      <c r="V51">
+        <v>7100</v>
+      </c>
+      <c r="W51">
+        <v>7100</v>
+      </c>
+      <c r="X51" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="47">
         <f t="shared" si="36"/>
         <v>45188</v>
@@ -24700,12 +25007,18 @@
       <c r="U52" s="78">
         <v>7100</v>
       </c>
-      <c r="V52" s="29">
+      <c r="V52">
+        <v>7100</v>
+      </c>
+      <c r="W52">
+        <v>7100</v>
+      </c>
+      <c r="X52" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="47">
         <f t="shared" si="36"/>
         <v>45189</v>
@@ -24774,12 +25087,18 @@
       <c r="U53" s="78">
         <v>7100</v>
       </c>
-      <c r="V53" s="29">
+      <c r="V53">
+        <v>7100</v>
+      </c>
+      <c r="W53">
+        <v>7100</v>
+      </c>
+      <c r="X53" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
         <f t="shared" si="36"/>
         <v>45190</v>
@@ -24848,12 +25167,18 @@
       <c r="U54" s="78">
         <v>7100</v>
       </c>
-      <c r="V54" s="29">
+      <c r="V54">
+        <v>7100</v>
+      </c>
+      <c r="W54">
+        <v>7100</v>
+      </c>
+      <c r="X54" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <f t="shared" si="36"/>
         <v>45191</v>
@@ -24922,12 +25247,18 @@
       <c r="U55" s="78">
         <v>6600</v>
       </c>
-      <c r="V55" s="29">
+      <c r="V55">
+        <v>6900</v>
+      </c>
+      <c r="W55">
+        <v>6900</v>
+      </c>
+      <c r="X55" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
         <f t="shared" si="36"/>
         <v>45192</v>
@@ -24996,12 +25327,18 @@
       <c r="U56" s="78">
         <v>6600</v>
       </c>
-      <c r="V56" s="29">
+      <c r="V56">
+        <v>6700</v>
+      </c>
+      <c r="W56">
+        <v>6700</v>
+      </c>
+      <c r="X56" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="47">
         <f t="shared" si="36"/>
         <v>45193</v>
@@ -25070,12 +25407,18 @@
       <c r="U57" s="78">
         <v>6600</v>
       </c>
-      <c r="V57" s="29">
+      <c r="V57">
+        <v>6600</v>
+      </c>
+      <c r="W57">
+        <v>6600</v>
+      </c>
+      <c r="X57" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="47">
         <f t="shared" si="36"/>
         <v>45194</v>
@@ -25142,12 +25485,18 @@
       <c r="U58" s="78">
         <v>6600</v>
       </c>
-      <c r="V58" s="29">
+      <c r="V58">
+        <v>6600</v>
+      </c>
+      <c r="W58">
+        <v>6600</v>
+      </c>
+      <c r="X58" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="47">
         <f t="shared" si="36"/>
         <v>45195</v>
@@ -25214,12 +25563,18 @@
       <c r="U59" s="78">
         <v>6600</v>
       </c>
-      <c r="V59" s="29">
+      <c r="V59">
+        <v>6600</v>
+      </c>
+      <c r="W59">
+        <v>6600</v>
+      </c>
+      <c r="X59" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="47">
         <f t="shared" si="36"/>
         <v>45196</v>
@@ -25286,12 +25641,18 @@
       <c r="U60" s="78">
         <v>6600</v>
       </c>
-      <c r="V60" s="29">
+      <c r="V60">
+        <v>6600</v>
+      </c>
+      <c r="W60">
+        <v>6600</v>
+      </c>
+      <c r="X60" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <f t="shared" si="36"/>
         <v>45197</v>
@@ -25358,12 +25719,18 @@
       <c r="U61" s="78">
         <v>6600</v>
       </c>
-      <c r="V61" s="29">
+      <c r="V61">
+        <v>6600</v>
+      </c>
+      <c r="W61">
+        <v>6600</v>
+      </c>
+      <c r="X61" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="43">
         <f t="shared" si="36"/>
         <v>45198</v>
@@ -25430,12 +25797,18 @@
       <c r="U62" s="78">
         <v>6600</v>
       </c>
-      <c r="V62" s="29">
+      <c r="V62">
+        <v>6400</v>
+      </c>
+      <c r="W62">
+        <v>6400</v>
+      </c>
+      <c r="X62" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="43">
         <f t="shared" si="36"/>
         <v>45199</v>
@@ -25502,12 +25875,18 @@
       <c r="U63" s="78">
         <v>6600</v>
       </c>
-      <c r="V63" s="29">
+      <c r="V63">
+        <v>6400</v>
+      </c>
+      <c r="W63">
+        <v>6400</v>
+      </c>
+      <c r="X63" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="51">
         <f t="shared" si="36"/>
         <v>45200</v>
@@ -25570,12 +25949,18 @@
       <c r="U64" s="78">
         <v>6600</v>
       </c>
-      <c r="V64" s="29">
+      <c r="V64">
+        <v>6400</v>
+      </c>
+      <c r="W64">
+        <v>6400</v>
+      </c>
+      <c r="X64" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="47">
         <f t="shared" si="36"/>
         <v>45201</v>
@@ -25643,12 +26028,18 @@
       <c r="U65" s="78">
         <v>6600</v>
       </c>
-      <c r="V65" s="29">
+      <c r="V65">
+        <v>6400</v>
+      </c>
+      <c r="W65">
+        <v>6400</v>
+      </c>
+      <c r="X65" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="47">
         <f t="shared" si="36"/>
         <v>45202</v>
@@ -25716,12 +26107,18 @@
       <c r="U66" s="78">
         <v>6600</v>
       </c>
-      <c r="V66" s="29">
+      <c r="V66">
+        <v>6400</v>
+      </c>
+      <c r="W66">
+        <v>6400</v>
+      </c>
+      <c r="X66" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="47">
         <f t="shared" si="36"/>
         <v>45203</v>
@@ -25789,12 +26186,18 @@
       <c r="U67" s="78">
         <v>6600</v>
       </c>
-      <c r="V67" s="29">
-        <f t="shared" ref="V67:V130" ca="1" si="71">IF(TODAY()&gt;A67,0,10000000)</f>
+      <c r="V67">
+        <v>6400</v>
+      </c>
+      <c r="W67">
+        <v>6400</v>
+      </c>
+      <c r="X67" s="29">
+        <f t="shared" ref="X67:X130" ca="1" si="71">IF(TODAY()&gt;A67,0,10000000)</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <f t="shared" si="36"/>
         <v>45204</v>
@@ -25862,12 +26265,18 @@
       <c r="U68" s="78">
         <v>6600</v>
       </c>
-      <c r="V68" s="29">
+      <c r="V68">
+        <v>6400</v>
+      </c>
+      <c r="W68">
+        <v>6300</v>
+      </c>
+      <c r="X68" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="43">
         <f t="shared" si="36"/>
         <v>45205</v>
@@ -25935,12 +26344,18 @@
       <c r="U69" s="78">
         <v>6600</v>
       </c>
-      <c r="V69" s="29">
+      <c r="V69">
+        <v>6400</v>
+      </c>
+      <c r="W69">
+        <v>6200</v>
+      </c>
+      <c r="X69" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="43">
         <f t="shared" si="36"/>
         <v>45206</v>
@@ -26008,12 +26423,18 @@
       <c r="U70" s="78">
         <v>6600</v>
       </c>
-      <c r="V70" s="29">
+      <c r="V70">
+        <v>6400</v>
+      </c>
+      <c r="W70">
+        <v>6100</v>
+      </c>
+      <c r="X70" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="43">
         <f t="shared" si="36"/>
         <v>45207</v>
@@ -26081,12 +26502,18 @@
       <c r="U71" s="78">
         <v>6600</v>
       </c>
-      <c r="V71" s="29">
+      <c r="V71">
+        <v>6400</v>
+      </c>
+      <c r="W71">
+        <v>6100</v>
+      </c>
+      <c r="X71" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="47">
         <f t="shared" si="36"/>
         <v>45208</v>
@@ -26154,12 +26581,18 @@
       <c r="U72" s="78">
         <v>6600</v>
       </c>
-      <c r="V72" s="29">
+      <c r="V72">
+        <v>6400</v>
+      </c>
+      <c r="W72">
+        <v>6100</v>
+      </c>
+      <c r="X72" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="47">
         <f t="shared" si="36"/>
         <v>45209</v>
@@ -26227,12 +26660,18 @@
       <c r="U73" s="78">
         <v>6600</v>
       </c>
-      <c r="V73" s="29">
+      <c r="V73">
+        <v>6400</v>
+      </c>
+      <c r="W73">
+        <v>6100</v>
+      </c>
+      <c r="X73" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="47">
         <f t="shared" si="36"/>
         <v>45210</v>
@@ -26300,12 +26739,18 @@
       <c r="U74" s="78">
         <v>6600</v>
       </c>
-      <c r="V74" s="29">
+      <c r="V74">
+        <v>6400</v>
+      </c>
+      <c r="W74">
+        <v>6100</v>
+      </c>
+      <c r="X74" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
         <f t="shared" si="36"/>
         <v>45211</v>
@@ -26373,12 +26818,18 @@
       <c r="U75" s="78">
         <v>6600</v>
       </c>
-      <c r="V75" s="29">
+      <c r="V75">
+        <v>6400</v>
+      </c>
+      <c r="W75">
+        <v>6100</v>
+      </c>
+      <c r="X75" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="43">
         <f t="shared" si="36"/>
         <v>45212</v>
@@ -26446,12 +26897,18 @@
       <c r="U76" s="78">
         <v>6600</v>
       </c>
-      <c r="V76" s="29">
+      <c r="V76">
+        <v>6400</v>
+      </c>
+      <c r="W76">
+        <v>6100</v>
+      </c>
+      <c r="X76" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="43">
         <f t="shared" si="36"/>
         <v>45213</v>
@@ -26519,12 +26976,18 @@
       <c r="U77" s="78">
         <v>6600</v>
       </c>
-      <c r="V77" s="29">
+      <c r="V77">
+        <v>6400</v>
+      </c>
+      <c r="W77">
+        <v>6100</v>
+      </c>
+      <c r="X77" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <f t="shared" si="36"/>
         <v>45214</v>
@@ -26592,12 +27055,18 @@
       <c r="U78" s="78">
         <v>6600</v>
       </c>
-      <c r="V78" s="29">
+      <c r="V78">
+        <v>6400</v>
+      </c>
+      <c r="W78">
+        <v>6300</v>
+      </c>
+      <c r="X78" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="47">
         <f t="shared" si="36"/>
         <v>45215</v>
@@ -26665,12 +27134,18 @@
       <c r="U79" s="78">
         <v>6600</v>
       </c>
-      <c r="V79" s="29">
+      <c r="V79">
+        <v>6500</v>
+      </c>
+      <c r="W79">
+        <v>6500</v>
+      </c>
+      <c r="X79" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="47">
         <f t="shared" si="36"/>
         <v>45216</v>
@@ -26738,12 +27213,18 @@
       <c r="U80" s="78">
         <v>6600</v>
       </c>
-      <c r="V80" s="29">
+      <c r="V80">
+        <v>6500</v>
+      </c>
+      <c r="W80">
+        <v>6500</v>
+      </c>
+      <c r="X80" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="47">
         <f t="shared" si="36"/>
         <v>45217</v>
@@ -26811,12 +27292,18 @@
       <c r="U81" s="78">
         <v>6600</v>
       </c>
-      <c r="V81" s="29">
+      <c r="V81">
+        <v>6500</v>
+      </c>
+      <c r="W81">
+        <v>6500</v>
+      </c>
+      <c r="X81" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="43">
         <f t="shared" si="36"/>
         <v>45218</v>
@@ -26883,12 +27370,18 @@
       <c r="U82" s="78">
         <v>6600</v>
       </c>
-      <c r="V82" s="29">
+      <c r="V82">
+        <v>6500</v>
+      </c>
+      <c r="W82">
+        <v>6500</v>
+      </c>
+      <c r="X82" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="43">
         <f t="shared" si="36"/>
         <v>45219</v>
@@ -26955,12 +27448,18 @@
       <c r="U83" s="78">
         <v>6600</v>
       </c>
-      <c r="V83" s="29">
+      <c r="V83">
+        <v>6500</v>
+      </c>
+      <c r="W83">
+        <v>6500</v>
+      </c>
+      <c r="X83" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="43">
         <f t="shared" si="36"/>
         <v>45220</v>
@@ -27027,12 +27526,18 @@
       <c r="U84" s="78">
         <v>6600</v>
       </c>
-      <c r="V84" s="29">
+      <c r="V84">
+        <v>6500</v>
+      </c>
+      <c r="W84">
+        <v>6500</v>
+      </c>
+      <c r="X84" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="47">
         <f t="shared" si="36"/>
         <v>45221</v>
@@ -27099,12 +27604,18 @@
       <c r="U85" s="78">
         <v>6600</v>
       </c>
-      <c r="V85" s="29">
+      <c r="V85">
+        <v>6500</v>
+      </c>
+      <c r="W85">
+        <v>6500</v>
+      </c>
+      <c r="X85" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="47">
         <f t="shared" si="36"/>
         <v>45222</v>
@@ -27171,12 +27682,18 @@
       <c r="U86" s="78">
         <v>6600</v>
       </c>
-      <c r="V86" s="29">
+      <c r="V86">
+        <v>6500</v>
+      </c>
+      <c r="W86">
+        <v>6500</v>
+      </c>
+      <c r="X86" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="47">
         <f t="shared" si="36"/>
         <v>45223</v>
@@ -27244,12 +27761,18 @@
       <c r="U87" s="78">
         <v>6600</v>
       </c>
-      <c r="V87" s="29">
+      <c r="V87">
+        <v>6500</v>
+      </c>
+      <c r="W87">
+        <v>6500</v>
+      </c>
+      <c r="X87" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="47">
         <f t="shared" si="36"/>
         <v>45224</v>
@@ -27317,12 +27840,18 @@
       <c r="U88" s="78">
         <v>6600</v>
       </c>
-      <c r="V88" s="29">
+      <c r="V88">
+        <v>6500</v>
+      </c>
+      <c r="W88">
+        <v>6500</v>
+      </c>
+      <c r="X88" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="43">
         <f t="shared" si="36"/>
         <v>45225</v>
@@ -27390,12 +27919,18 @@
       <c r="U89" s="78">
         <v>6600</v>
       </c>
-      <c r="V89" s="29">
+      <c r="V89">
+        <v>6500</v>
+      </c>
+      <c r="W89">
+        <v>6500</v>
+      </c>
+      <c r="X89" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="43">
         <f t="shared" si="36"/>
         <v>45226</v>
@@ -27463,12 +27998,18 @@
       <c r="U90" s="78">
         <v>6600</v>
       </c>
-      <c r="V90" s="29">
+      <c r="V90">
+        <v>6500</v>
+      </c>
+      <c r="W90">
+        <v>6500</v>
+      </c>
+      <c r="X90" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="43">
         <f t="shared" si="36"/>
         <v>45227</v>
@@ -27536,12 +28077,18 @@
       <c r="U91" s="78">
         <v>6600</v>
       </c>
-      <c r="V91" s="29">
+      <c r="V91">
+        <v>6500</v>
+      </c>
+      <c r="W91">
+        <v>6500</v>
+      </c>
+      <c r="X91" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="47">
         <f t="shared" si="36"/>
         <v>45228</v>
@@ -27609,12 +28156,18 @@
       <c r="U92" s="78">
         <v>6600</v>
       </c>
-      <c r="V92" s="29">
+      <c r="V92">
+        <v>6500</v>
+      </c>
+      <c r="W92">
+        <v>6500</v>
+      </c>
+      <c r="X92" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="47">
         <f t="shared" si="36"/>
         <v>45229</v>
@@ -27682,12 +28235,18 @@
       <c r="U93" s="78">
         <v>6600</v>
       </c>
-      <c r="V93" s="29">
+      <c r="V93">
+        <v>6500</v>
+      </c>
+      <c r="W93">
+        <v>6500</v>
+      </c>
+      <c r="X93" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="47">
         <f t="shared" si="36"/>
         <v>45230</v>
@@ -27755,12 +28314,18 @@
       <c r="U94" s="78">
         <v>6600</v>
       </c>
-      <c r="V94" s="29">
+      <c r="V94">
+        <v>6500</v>
+      </c>
+      <c r="W94">
+        <v>6500</v>
+      </c>
+      <c r="X94" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="51">
         <f t="shared" si="36"/>
         <v>45231</v>
@@ -27823,12 +28388,18 @@
       <c r="U95" s="78">
         <v>6100</v>
       </c>
-      <c r="V95" s="29">
+      <c r="V95">
+        <v>6300</v>
+      </c>
+      <c r="W95">
+        <v>6300</v>
+      </c>
+      <c r="X95" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="45">
         <f t="shared" si="36"/>
         <v>45232</v>
@@ -27896,12 +28467,18 @@
       <c r="U96" s="78">
         <v>5500</v>
       </c>
-      <c r="V96" s="29">
+      <c r="V96">
+        <v>6100</v>
+      </c>
+      <c r="W96">
+        <v>6100</v>
+      </c>
+      <c r="X96" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="45">
         <f t="shared" si="36"/>
         <v>45233</v>
@@ -27969,12 +28546,18 @@
       <c r="U97" s="78">
         <v>5500</v>
       </c>
-      <c r="V97" s="29">
+      <c r="V97">
+        <v>5900</v>
+      </c>
+      <c r="W97">
+        <v>5900</v>
+      </c>
+      <c r="X97" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="45">
         <f t="shared" si="36"/>
         <v>45234</v>
@@ -28042,12 +28625,18 @@
       <c r="U98" s="78">
         <v>5500</v>
       </c>
-      <c r="V98" s="29">
+      <c r="V98">
+        <v>5700</v>
+      </c>
+      <c r="W98">
+        <v>5700</v>
+      </c>
+      <c r="X98" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="45">
         <f t="shared" si="36"/>
         <v>45235</v>
@@ -28115,12 +28704,18 @@
       <c r="U99" s="78">
         <v>5500</v>
       </c>
-      <c r="V99" s="29">
+      <c r="V99">
+        <v>5500</v>
+      </c>
+      <c r="W99">
+        <v>5500</v>
+      </c>
+      <c r="X99" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="45">
         <f t="shared" ref="A100:A163" si="108">A99+1</f>
         <v>45236</v>
@@ -28190,12 +28785,18 @@
       <c r="U100" s="78">
         <v>5500</v>
       </c>
-      <c r="V100" s="29">
+      <c r="V100">
+        <v>5300</v>
+      </c>
+      <c r="W100">
+        <v>5300</v>
+      </c>
+      <c r="X100" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="45">
         <f t="shared" si="108"/>
         <v>45237</v>
@@ -28265,12 +28866,18 @@
       <c r="U101" s="78">
         <v>5500</v>
       </c>
-      <c r="V101" s="29">
+      <c r="V101">
+        <v>5100</v>
+      </c>
+      <c r="W101">
+        <v>5100</v>
+      </c>
+      <c r="X101" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="45">
         <f t="shared" si="108"/>
         <v>45238</v>
@@ -28341,12 +28948,18 @@
       <c r="U102" s="78">
         <v>5500</v>
       </c>
-      <c r="V102" s="29">
+      <c r="V102">
+        <v>5000</v>
+      </c>
+      <c r="W102">
+        <v>5000</v>
+      </c>
+      <c r="X102" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="45">
         <f t="shared" si="108"/>
         <v>45239</v>
@@ -28417,12 +29030,18 @@
       <c r="U103" s="78">
         <v>5500</v>
       </c>
-      <c r="V103" s="29">
+      <c r="V103">
+        <v>5000</v>
+      </c>
+      <c r="W103">
+        <v>5000</v>
+      </c>
+      <c r="X103" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="45">
         <f t="shared" si="108"/>
         <v>45240</v>
@@ -28493,12 +29112,18 @@
       <c r="U104" s="78">
         <v>5500</v>
       </c>
-      <c r="V104" s="29">
+      <c r="V104">
+        <v>5000</v>
+      </c>
+      <c r="W104">
+        <v>5000</v>
+      </c>
+      <c r="X104" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <f t="shared" si="108"/>
         <v>45241</v>
@@ -28569,12 +29194,18 @@
       <c r="U105" s="78">
         <v>5500</v>
       </c>
-      <c r="V105" s="29">
+      <c r="V105">
+        <v>5000</v>
+      </c>
+      <c r="W105">
+        <v>5000</v>
+      </c>
+      <c r="X105" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="45">
         <f t="shared" si="108"/>
         <v>45242</v>
@@ -28645,12 +29276,18 @@
       <c r="U106" s="78">
         <v>5500</v>
       </c>
-      <c r="V106" s="29">
+      <c r="V106">
+        <v>5000</v>
+      </c>
+      <c r="W106">
+        <v>5000</v>
+      </c>
+      <c r="X106" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="45">
         <f t="shared" si="108"/>
         <v>45243</v>
@@ -28721,12 +29358,18 @@
       <c r="U107" s="78">
         <v>5500</v>
       </c>
-      <c r="V107" s="29">
+      <c r="V107">
+        <v>5000</v>
+      </c>
+      <c r="W107">
+        <v>5000</v>
+      </c>
+      <c r="X107" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="45">
         <f t="shared" si="108"/>
         <v>45244</v>
@@ -28797,12 +29440,18 @@
       <c r="U108" s="78">
         <v>5500</v>
       </c>
-      <c r="V108" s="29">
+      <c r="V108">
+        <v>5000</v>
+      </c>
+      <c r="W108">
+        <v>5000</v>
+      </c>
+      <c r="X108" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="45">
         <f t="shared" si="108"/>
         <v>45245</v>
@@ -28873,12 +29522,18 @@
       <c r="U109" s="78">
         <v>5500</v>
       </c>
-      <c r="V109" s="29">
+      <c r="V109">
+        <v>5000</v>
+      </c>
+      <c r="W109">
+        <v>5000</v>
+      </c>
+      <c r="X109" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="45">
         <f t="shared" si="108"/>
         <v>45246</v>
@@ -28949,12 +29604,18 @@
       <c r="U110" s="78">
         <v>5500</v>
       </c>
-      <c r="V110" s="29">
+      <c r="V110">
+        <v>5000</v>
+      </c>
+      <c r="W110">
+        <v>5000</v>
+      </c>
+      <c r="X110" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="45">
         <f t="shared" si="108"/>
         <v>45247</v>
@@ -29025,12 +29686,18 @@
       <c r="U111" s="78">
         <v>5500</v>
       </c>
-      <c r="V111" s="29">
+      <c r="V111">
+        <v>5000</v>
+      </c>
+      <c r="W111">
+        <v>5000</v>
+      </c>
+      <c r="X111" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="45">
         <f t="shared" si="108"/>
         <v>45248</v>
@@ -29101,12 +29768,18 @@
       <c r="U112" s="78">
         <v>5500</v>
       </c>
-      <c r="V112" s="29">
+      <c r="V112">
+        <v>5000</v>
+      </c>
+      <c r="W112">
+        <v>5000</v>
+      </c>
+      <c r="X112" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="45">
         <f t="shared" si="108"/>
         <v>45249</v>
@@ -29177,12 +29850,18 @@
       <c r="U113" s="78">
         <v>5500</v>
       </c>
-      <c r="V113" s="29">
+      <c r="V113">
+        <v>5000</v>
+      </c>
+      <c r="W113">
+        <v>5000</v>
+      </c>
+      <c r="X113" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="45">
         <f t="shared" si="108"/>
         <v>45250</v>
@@ -29253,12 +29932,18 @@
       <c r="U114" s="78">
         <v>5500</v>
       </c>
-      <c r="V114" s="29">
+      <c r="V114">
+        <v>5000</v>
+      </c>
+      <c r="W114">
+        <v>5000</v>
+      </c>
+      <c r="X114" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="45">
         <f t="shared" si="108"/>
         <v>45251</v>
@@ -29329,12 +30014,18 @@
       <c r="U115" s="78">
         <v>5500</v>
       </c>
-      <c r="V115" s="29">
+      <c r="V115">
+        <v>5000</v>
+      </c>
+      <c r="W115">
+        <v>5000</v>
+      </c>
+      <c r="X115" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <f t="shared" si="108"/>
         <v>45252</v>
@@ -29405,12 +30096,18 @@
       <c r="U116" s="78">
         <v>5500</v>
       </c>
-      <c r="V116" s="29">
+      <c r="V116">
+        <v>5000</v>
+      </c>
+      <c r="W116">
+        <v>5000</v>
+      </c>
+      <c r="X116" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="45">
         <f t="shared" si="108"/>
         <v>45253</v>
@@ -29481,12 +30178,18 @@
       <c r="U117" s="78">
         <v>5500</v>
       </c>
-      <c r="V117" s="29">
+      <c r="V117">
+        <v>5000</v>
+      </c>
+      <c r="W117">
+        <v>5000</v>
+      </c>
+      <c r="X117" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
         <f t="shared" si="108"/>
         <v>45254</v>
@@ -29557,12 +30260,18 @@
       <c r="U118" s="78">
         <v>5500</v>
       </c>
-      <c r="V118" s="29">
+      <c r="V118">
+        <v>5000</v>
+      </c>
+      <c r="W118">
+        <v>5000</v>
+      </c>
+      <c r="X118" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <f t="shared" si="108"/>
         <v>45255</v>
@@ -29633,12 +30342,18 @@
       <c r="U119" s="78">
         <v>5500</v>
       </c>
-      <c r="V119" s="29">
+      <c r="V119">
+        <v>5000</v>
+      </c>
+      <c r="W119">
+        <v>5000</v>
+      </c>
+      <c r="X119" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="45">
         <f t="shared" si="108"/>
         <v>45256</v>
@@ -29709,12 +30424,18 @@
       <c r="U120" s="78">
         <v>5500</v>
       </c>
-      <c r="V120" s="29">
+      <c r="V120">
+        <v>5000</v>
+      </c>
+      <c r="W120">
+        <v>5000</v>
+      </c>
+      <c r="X120" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="45">
         <f t="shared" si="108"/>
         <v>45257</v>
@@ -29785,12 +30506,18 @@
       <c r="U121" s="78">
         <v>5500</v>
       </c>
-      <c r="V121" s="29">
+      <c r="V121">
+        <v>5000</v>
+      </c>
+      <c r="W121">
+        <v>5000</v>
+      </c>
+      <c r="X121" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <f t="shared" si="108"/>
         <v>45258</v>
@@ -29861,12 +30588,18 @@
       <c r="U122" s="78">
         <v>5500</v>
       </c>
-      <c r="V122" s="29">
+      <c r="V122">
+        <v>5000</v>
+      </c>
+      <c r="W122">
+        <v>5000</v>
+      </c>
+      <c r="X122" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="45">
         <f t="shared" si="108"/>
         <v>45259</v>
@@ -29937,12 +30670,18 @@
       <c r="U123" s="78">
         <v>5500</v>
       </c>
-      <c r="V123" s="29">
+      <c r="V123">
+        <v>5000</v>
+      </c>
+      <c r="W123">
+        <v>5000</v>
+      </c>
+      <c r="X123" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="46">
         <f t="shared" si="108"/>
         <v>45260</v>
@@ -30013,12 +30752,18 @@
       <c r="U124" s="78">
         <v>5500</v>
       </c>
-      <c r="V124" s="29">
+      <c r="V124">
+        <v>5000</v>
+      </c>
+      <c r="W124">
+        <v>5000</v>
+      </c>
+      <c r="X124" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
         <f t="shared" si="108"/>
         <v>45261</v>
@@ -30085,12 +30830,18 @@
       <c r="U125" s="78">
         <v>5000</v>
       </c>
-      <c r="V125" s="29">
+      <c r="V125">
+        <v>5000</v>
+      </c>
+      <c r="W125">
+        <v>5000</v>
+      </c>
+      <c r="X125" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <f t="shared" si="108"/>
         <v>45262</v>
@@ -30162,12 +30913,18 @@
       <c r="U126" s="78">
         <v>5000</v>
       </c>
-      <c r="V126" s="29">
+      <c r="V126">
+        <v>5000</v>
+      </c>
+      <c r="W126">
+        <v>5000</v>
+      </c>
+      <c r="X126" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="43">
         <f t="shared" si="108"/>
         <v>45263</v>
@@ -30239,12 +30996,18 @@
       <c r="U127" s="78">
         <v>5000</v>
       </c>
-      <c r="V127" s="29">
+      <c r="V127">
+        <v>5000</v>
+      </c>
+      <c r="W127">
+        <v>5000</v>
+      </c>
+      <c r="X127" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="43">
         <f t="shared" si="108"/>
         <v>45264</v>
@@ -30316,12 +31079,18 @@
       <c r="U128" s="78">
         <v>5000</v>
       </c>
-      <c r="V128" s="29">
+      <c r="V128">
+        <v>5000</v>
+      </c>
+      <c r="W128">
+        <v>5000</v>
+      </c>
+      <c r="X128" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="43">
         <f t="shared" si="108"/>
         <v>45265</v>
@@ -30393,12 +31162,18 @@
       <c r="U129" s="78">
         <v>5000</v>
       </c>
-      <c r="V129" s="29">
+      <c r="V129">
+        <v>5000</v>
+      </c>
+      <c r="W129">
+        <v>5000</v>
+      </c>
+      <c r="X129" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="43">
         <f t="shared" si="108"/>
         <v>45266</v>
@@ -30470,12 +31245,18 @@
       <c r="U130" s="78">
         <v>5000</v>
       </c>
-      <c r="V130" s="29">
+      <c r="V130">
+        <v>5000</v>
+      </c>
+      <c r="W130">
+        <v>5000</v>
+      </c>
+      <c r="X130" s="29">
         <f t="shared" ca="1" si="71"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <f t="shared" si="108"/>
         <v>45267</v>
@@ -30547,12 +31328,18 @@
       <c r="U131" s="78">
         <v>5000</v>
       </c>
-      <c r="V131" s="29">
-        <f t="shared" ref="V131:V194" ca="1" si="175">IF(TODAY()&gt;A131,0,10000000)</f>
+      <c r="V131">
+        <v>5000</v>
+      </c>
+      <c r="W131">
+        <v>5000</v>
+      </c>
+      <c r="X131" s="29">
+        <f t="shared" ref="X131:X194" ca="1" si="175">IF(TODAY()&gt;A131,0,10000000)</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="43">
         <f t="shared" si="108"/>
         <v>45268</v>
@@ -30624,12 +31411,18 @@
       <c r="U132" s="78">
         <v>5000</v>
       </c>
-      <c r="V132" s="29">
+      <c r="V132">
+        <v>5000</v>
+      </c>
+      <c r="W132">
+        <v>5000</v>
+      </c>
+      <c r="X132" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="43">
         <f t="shared" si="108"/>
         <v>45269</v>
@@ -30701,12 +31494,18 @@
       <c r="U133" s="78">
         <v>5000</v>
       </c>
-      <c r="V133" s="29">
+      <c r="V133">
+        <v>5000</v>
+      </c>
+      <c r="W133">
+        <v>5000</v>
+      </c>
+      <c r="X133" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="43">
         <f t="shared" si="108"/>
         <v>45270</v>
@@ -30778,12 +31577,18 @@
       <c r="U134" s="78">
         <v>5000</v>
       </c>
-      <c r="V134" s="29">
+      <c r="V134">
+        <v>5000</v>
+      </c>
+      <c r="W134">
+        <v>5000</v>
+      </c>
+      <c r="X134" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <f t="shared" si="108"/>
         <v>45271</v>
@@ -30855,12 +31660,18 @@
       <c r="U135" s="78">
         <v>5000</v>
       </c>
-      <c r="V135" s="29">
+      <c r="V135">
+        <v>5000</v>
+      </c>
+      <c r="W135">
+        <v>5000</v>
+      </c>
+      <c r="X135" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="43">
         <f t="shared" si="108"/>
         <v>45272</v>
@@ -30932,12 +31743,18 @@
       <c r="U136" s="78">
         <v>5000</v>
       </c>
-      <c r="V136" s="29">
+      <c r="V136">
+        <v>5000</v>
+      </c>
+      <c r="W136">
+        <v>5000</v>
+      </c>
+      <c r="X136" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="43">
         <f t="shared" si="108"/>
         <v>45273</v>
@@ -31009,12 +31826,18 @@
       <c r="U137" s="78">
         <v>5000</v>
       </c>
-      <c r="V137" s="29">
+      <c r="V137">
+        <v>5000</v>
+      </c>
+      <c r="W137">
+        <v>5000</v>
+      </c>
+      <c r="X137" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="43">
         <f t="shared" si="108"/>
         <v>45274</v>
@@ -31086,12 +31909,18 @@
       <c r="U138" s="78">
         <v>5000</v>
       </c>
-      <c r="V138" s="29">
+      <c r="V138">
+        <v>5000</v>
+      </c>
+      <c r="W138">
+        <v>5000</v>
+      </c>
+      <c r="X138" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <f t="shared" si="108"/>
         <v>45275</v>
@@ -31163,12 +31992,18 @@
       <c r="U139" s="78">
         <v>5000</v>
       </c>
-      <c r="V139" s="29">
+      <c r="V139">
+        <v>5000</v>
+      </c>
+      <c r="W139">
+        <v>5000</v>
+      </c>
+      <c r="X139" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="43">
         <f t="shared" si="108"/>
         <v>45276</v>
@@ -31240,12 +32075,18 @@
       <c r="U140" s="78">
         <v>5000</v>
       </c>
-      <c r="V140" s="29">
+      <c r="V140">
+        <v>5000</v>
+      </c>
+      <c r="W140">
+        <v>5000</v>
+      </c>
+      <c r="X140" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="43">
         <f t="shared" si="108"/>
         <v>45277</v>
@@ -31317,12 +32158,18 @@
       <c r="U141" s="78">
         <v>5000</v>
       </c>
-      <c r="V141" s="29">
+      <c r="V141">
+        <v>5000</v>
+      </c>
+      <c r="W141">
+        <v>5000</v>
+      </c>
+      <c r="X141" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="43">
         <f t="shared" si="108"/>
         <v>45278</v>
@@ -31394,12 +32241,18 @@
       <c r="U142" s="78">
         <v>5000</v>
       </c>
-      <c r="V142" s="29">
+      <c r="V142">
+        <v>5000</v>
+      </c>
+      <c r="W142">
+        <v>5000</v>
+      </c>
+      <c r="X142" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
         <f t="shared" si="108"/>
         <v>45279</v>
@@ -31471,12 +32324,18 @@
       <c r="U143" s="78">
         <v>5000</v>
       </c>
-      <c r="V143" s="29">
+      <c r="V143">
+        <v>5000</v>
+      </c>
+      <c r="W143">
+        <v>5000</v>
+      </c>
+      <c r="X143" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="43">
         <f t="shared" si="108"/>
         <v>45280</v>
@@ -31548,12 +32407,18 @@
       <c r="U144" s="78">
         <v>5000</v>
       </c>
-      <c r="V144" s="29">
+      <c r="V144">
+        <v>5000</v>
+      </c>
+      <c r="W144">
+        <v>5000</v>
+      </c>
+      <c r="X144" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="43">
         <f t="shared" si="108"/>
         <v>45281</v>
@@ -31625,12 +32490,18 @@
       <c r="U145" s="78">
         <v>5000</v>
       </c>
-      <c r="V145" s="29">
+      <c r="V145">
+        <v>5000</v>
+      </c>
+      <c r="W145">
+        <v>5000</v>
+      </c>
+      <c r="X145" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="43">
         <f t="shared" si="108"/>
         <v>45282</v>
@@ -31702,12 +32573,18 @@
       <c r="U146" s="78">
         <v>5000</v>
       </c>
-      <c r="V146" s="29">
+      <c r="V146">
+        <v>5000</v>
+      </c>
+      <c r="W146">
+        <v>5000</v>
+      </c>
+      <c r="X146" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="43">
         <f t="shared" si="108"/>
         <v>45283</v>
@@ -31779,12 +32656,18 @@
       <c r="U147" s="78">
         <v>5000</v>
       </c>
-      <c r="V147" s="29">
+      <c r="V147">
+        <v>5000</v>
+      </c>
+      <c r="W147">
+        <v>5000</v>
+      </c>
+      <c r="X147" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="43">
         <f t="shared" si="108"/>
         <v>45284</v>
@@ -31856,12 +32739,18 @@
       <c r="U148" s="78">
         <v>5000</v>
       </c>
-      <c r="V148" s="29">
+      <c r="V148">
+        <v>5000</v>
+      </c>
+      <c r="W148">
+        <v>5000</v>
+      </c>
+      <c r="X148" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="43">
         <f t="shared" si="108"/>
         <v>45285</v>
@@ -31933,12 +32822,18 @@
       <c r="U149" s="78">
         <v>5000</v>
       </c>
-      <c r="V149" s="29">
+      <c r="V149">
+        <v>5000</v>
+      </c>
+      <c r="W149">
+        <v>5000</v>
+      </c>
+      <c r="X149" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="43">
         <f t="shared" si="108"/>
         <v>45286</v>
@@ -32010,12 +32905,18 @@
       <c r="U150" s="78">
         <v>5000</v>
       </c>
-      <c r="V150" s="29">
+      <c r="V150">
+        <v>5000</v>
+      </c>
+      <c r="W150">
+        <v>5000</v>
+      </c>
+      <c r="X150" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="43">
         <f t="shared" si="108"/>
         <v>45287</v>
@@ -32087,12 +32988,18 @@
       <c r="U151" s="78">
         <v>5000</v>
       </c>
-      <c r="V151" s="29">
+      <c r="V151">
+        <v>5000</v>
+      </c>
+      <c r="W151">
+        <v>5000</v>
+      </c>
+      <c r="X151" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="43">
         <f t="shared" si="108"/>
         <v>45288</v>
@@ -32164,12 +33071,18 @@
       <c r="U152" s="78">
         <v>5000</v>
       </c>
-      <c r="V152" s="29">
+      <c r="V152">
+        <v>5000</v>
+      </c>
+      <c r="W152">
+        <v>5000</v>
+      </c>
+      <c r="X152" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="43">
         <f t="shared" si="108"/>
         <v>45289</v>
@@ -32241,12 +33154,18 @@
       <c r="U153" s="78">
         <v>5000</v>
       </c>
-      <c r="V153" s="29">
+      <c r="V153">
+        <v>5000</v>
+      </c>
+      <c r="W153">
+        <v>5000</v>
+      </c>
+      <c r="X153" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="43">
         <f t="shared" si="108"/>
         <v>45290</v>
@@ -32318,12 +33237,18 @@
       <c r="U154" s="78">
         <v>5000</v>
       </c>
-      <c r="V154" s="29">
+      <c r="V154">
+        <v>5000</v>
+      </c>
+      <c r="W154">
+        <v>5000</v>
+      </c>
+      <c r="X154" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="43">
         <f t="shared" si="108"/>
         <v>45291</v>
@@ -32395,12 +33320,18 @@
       <c r="U155" s="78">
         <v>5000</v>
       </c>
-      <c r="V155" s="29">
+      <c r="V155">
+        <v>5000</v>
+      </c>
+      <c r="W155">
+        <v>5000</v>
+      </c>
+      <c r="X155" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="44">
         <f t="shared" si="108"/>
         <v>45292</v>
@@ -32464,12 +33395,18 @@
       <c r="U156" s="78">
         <v>5000</v>
       </c>
-      <c r="V156" s="29">
+      <c r="V156">
+        <v>5000</v>
+      </c>
+      <c r="W156">
+        <v>5000</v>
+      </c>
+      <c r="X156" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="45">
         <f t="shared" si="108"/>
         <v>45293</v>
@@ -32541,12 +33478,18 @@
       <c r="U157" s="78">
         <v>5000</v>
       </c>
-      <c r="V157" s="29">
+      <c r="V157">
+        <v>5000</v>
+      </c>
+      <c r="W157">
+        <v>5000</v>
+      </c>
+      <c r="X157" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="45">
         <f t="shared" si="108"/>
         <v>45294</v>
@@ -32618,12 +33561,18 @@
       <c r="U158" s="78">
         <v>5000</v>
       </c>
-      <c r="V158" s="29">
+      <c r="V158">
+        <v>5000</v>
+      </c>
+      <c r="W158">
+        <v>5000</v>
+      </c>
+      <c r="X158" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="45">
         <f t="shared" si="108"/>
         <v>45295</v>
@@ -32695,12 +33644,18 @@
       <c r="U159" s="78">
         <v>5000</v>
       </c>
-      <c r="V159" s="29">
+      <c r="V159">
+        <v>5000</v>
+      </c>
+      <c r="W159">
+        <v>5000</v>
+      </c>
+      <c r="X159" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="45">
         <f t="shared" si="108"/>
         <v>45296</v>
@@ -32772,12 +33727,18 @@
       <c r="U160" s="78">
         <v>5000</v>
       </c>
-      <c r="V160" s="29">
+      <c r="V160">
+        <v>5000</v>
+      </c>
+      <c r="W160">
+        <v>5000</v>
+      </c>
+      <c r="X160" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="45">
         <f t="shared" si="108"/>
         <v>45297</v>
@@ -32849,12 +33810,18 @@
       <c r="U161" s="78">
         <v>5000</v>
       </c>
-      <c r="V161" s="29">
+      <c r="V161">
+        <v>5000</v>
+      </c>
+      <c r="W161">
+        <v>5000</v>
+      </c>
+      <c r="X161" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="45">
         <f t="shared" si="108"/>
         <v>45298</v>
@@ -32926,12 +33893,18 @@
       <c r="U162" s="78">
         <v>5000</v>
       </c>
-      <c r="V162" s="29">
+      <c r="V162">
+        <v>5000</v>
+      </c>
+      <c r="W162">
+        <v>5000</v>
+      </c>
+      <c r="X162" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="45">
         <f t="shared" si="108"/>
         <v>45299</v>
@@ -33003,12 +33976,18 @@
       <c r="U163" s="78">
         <v>5000</v>
       </c>
-      <c r="V163" s="29">
+      <c r="V163">
+        <v>5000</v>
+      </c>
+      <c r="W163">
+        <v>5000</v>
+      </c>
+      <c r="X163" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="45">
         <f t="shared" ref="A164:A215" si="273">A163+1</f>
         <v>45300</v>
@@ -33080,12 +34059,18 @@
       <c r="U164" s="78">
         <v>5000</v>
       </c>
-      <c r="V164" s="29">
+      <c r="V164">
+        <v>5000</v>
+      </c>
+      <c r="W164">
+        <v>5000</v>
+      </c>
+      <c r="X164" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="45">
         <f t="shared" si="273"/>
         <v>45301</v>
@@ -33157,12 +34142,18 @@
       <c r="U165" s="78">
         <v>5000</v>
       </c>
-      <c r="V165" s="29">
+      <c r="V165">
+        <v>5000</v>
+      </c>
+      <c r="W165">
+        <v>5000</v>
+      </c>
+      <c r="X165" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="45">
         <f t="shared" si="273"/>
         <v>45302</v>
@@ -33234,12 +34225,18 @@
       <c r="U166" s="78">
         <v>5000</v>
       </c>
-      <c r="V166" s="29">
+      <c r="V166">
+        <v>5000</v>
+      </c>
+      <c r="W166">
+        <v>5000</v>
+      </c>
+      <c r="X166" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="45">
         <f t="shared" si="273"/>
         <v>45303</v>
@@ -33311,12 +34308,18 @@
       <c r="U167" s="78">
         <v>5000</v>
       </c>
-      <c r="V167" s="29">
+      <c r="V167">
+        <v>5000</v>
+      </c>
+      <c r="W167">
+        <v>5000</v>
+      </c>
+      <c r="X167" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="45">
         <f t="shared" si="273"/>
         <v>45304</v>
@@ -33388,12 +34391,18 @@
       <c r="U168" s="78">
         <v>5000</v>
       </c>
-      <c r="V168" s="29">
+      <c r="V168">
+        <v>5000</v>
+      </c>
+      <c r="W168">
+        <v>5000</v>
+      </c>
+      <c r="X168" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="45">
         <f t="shared" si="273"/>
         <v>45305</v>
@@ -33465,12 +34474,18 @@
       <c r="U169" s="78">
         <v>5000</v>
       </c>
-      <c r="V169" s="29">
+      <c r="V169">
+        <v>5000</v>
+      </c>
+      <c r="W169">
+        <v>5000</v>
+      </c>
+      <c r="X169" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="45">
         <f t="shared" si="273"/>
         <v>45306</v>
@@ -33542,12 +34557,18 @@
       <c r="U170" s="78">
         <v>5000</v>
       </c>
-      <c r="V170" s="29">
+      <c r="V170">
+        <v>5000</v>
+      </c>
+      <c r="W170">
+        <v>5000</v>
+      </c>
+      <c r="X170" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <f t="shared" si="273"/>
         <v>45307</v>
@@ -33619,12 +34640,18 @@
       <c r="U171" s="78">
         <v>5000</v>
       </c>
-      <c r="V171" s="29">
+      <c r="V171">
+        <v>5000</v>
+      </c>
+      <c r="W171">
+        <v>5000</v>
+      </c>
+      <c r="X171" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="45">
         <f t="shared" si="273"/>
         <v>45308</v>
@@ -33696,12 +34723,18 @@
       <c r="U172" s="78">
         <v>5000</v>
       </c>
-      <c r="V172" s="29">
+      <c r="V172">
+        <v>5000</v>
+      </c>
+      <c r="W172">
+        <v>5000</v>
+      </c>
+      <c r="X172" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="45">
         <f t="shared" si="273"/>
         <v>45309</v>
@@ -33773,12 +34806,18 @@
       <c r="U173" s="78">
         <v>5000</v>
       </c>
-      <c r="V173" s="29">
+      <c r="V173">
+        <v>5000</v>
+      </c>
+      <c r="W173">
+        <v>5000</v>
+      </c>
+      <c r="X173" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="45">
         <f t="shared" si="273"/>
         <v>45310</v>
@@ -33850,12 +34889,18 @@
       <c r="U174" s="78">
         <v>5000</v>
       </c>
-      <c r="V174" s="29">
+      <c r="V174">
+        <v>5000</v>
+      </c>
+      <c r="W174">
+        <v>5000</v>
+      </c>
+      <c r="X174" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="45">
         <f t="shared" si="273"/>
         <v>45311</v>
@@ -33927,12 +34972,18 @@
       <c r="U175" s="78">
         <v>5000</v>
       </c>
-      <c r="V175" s="29">
+      <c r="V175">
+        <v>5000</v>
+      </c>
+      <c r="W175">
+        <v>5000</v>
+      </c>
+      <c r="X175" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="45">
         <f t="shared" si="273"/>
         <v>45312</v>
@@ -34004,12 +35055,18 @@
       <c r="U176" s="78">
         <v>5000</v>
       </c>
-      <c r="V176" s="29">
+      <c r="V176">
+        <v>5000</v>
+      </c>
+      <c r="W176">
+        <v>5000</v>
+      </c>
+      <c r="X176" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="45">
         <f t="shared" si="273"/>
         <v>45313</v>
@@ -34081,12 +35138,18 @@
       <c r="U177" s="78">
         <v>5000</v>
       </c>
-      <c r="V177" s="29">
+      <c r="V177">
+        <v>5000</v>
+      </c>
+      <c r="W177">
+        <v>5000</v>
+      </c>
+      <c r="X177" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="45">
         <f t="shared" si="273"/>
         <v>45314</v>
@@ -34158,12 +35221,18 @@
       <c r="U178" s="78">
         <v>5000</v>
       </c>
-      <c r="V178" s="29">
+      <c r="V178">
+        <v>5000</v>
+      </c>
+      <c r="W178">
+        <v>5000</v>
+      </c>
+      <c r="X178" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="45">
         <f t="shared" si="273"/>
         <v>45315</v>
@@ -34235,12 +35304,18 @@
       <c r="U179" s="78">
         <v>5000</v>
       </c>
-      <c r="V179" s="29">
+      <c r="V179">
+        <v>5000</v>
+      </c>
+      <c r="W179">
+        <v>5000</v>
+      </c>
+      <c r="X179" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="45">
         <f t="shared" si="273"/>
         <v>45316</v>
@@ -34312,12 +35387,18 @@
       <c r="U180" s="78">
         <v>5000</v>
       </c>
-      <c r="V180" s="29">
+      <c r="V180">
+        <v>5000</v>
+      </c>
+      <c r="W180">
+        <v>5000</v>
+      </c>
+      <c r="X180" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="45">
         <f t="shared" si="273"/>
         <v>45317</v>
@@ -34389,12 +35470,18 @@
       <c r="U181" s="78">
         <v>5000</v>
       </c>
-      <c r="V181" s="29">
+      <c r="V181">
+        <v>5000</v>
+      </c>
+      <c r="W181">
+        <v>5000</v>
+      </c>
+      <c r="X181" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="45">
         <f t="shared" si="273"/>
         <v>45318</v>
@@ -34466,12 +35553,18 @@
       <c r="U182" s="78">
         <v>5000</v>
       </c>
-      <c r="V182" s="29">
+      <c r="V182">
+        <v>5000</v>
+      </c>
+      <c r="W182">
+        <v>5000</v>
+      </c>
+      <c r="X182" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="45">
         <f t="shared" si="273"/>
         <v>45319</v>
@@ -34543,12 +35636,18 @@
       <c r="U183" s="78">
         <v>5000</v>
       </c>
-      <c r="V183" s="29">
+      <c r="V183">
+        <v>5000</v>
+      </c>
+      <c r="W183">
+        <v>5000</v>
+      </c>
+      <c r="X183" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="45">
         <f t="shared" si="273"/>
         <v>45320</v>
@@ -34620,12 +35719,18 @@
       <c r="U184" s="78">
         <v>5000</v>
       </c>
-      <c r="V184" s="29">
+      <c r="V184">
+        <v>5000</v>
+      </c>
+      <c r="W184">
+        <v>5000</v>
+      </c>
+      <c r="X184" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="45">
         <f t="shared" si="273"/>
         <v>45321</v>
@@ -34697,12 +35802,18 @@
       <c r="U185" s="78">
         <v>5000</v>
       </c>
-      <c r="V185" s="29">
+      <c r="V185">
+        <v>5000</v>
+      </c>
+      <c r="W185">
+        <v>5000</v>
+      </c>
+      <c r="X185" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="46">
         <f t="shared" si="273"/>
         <v>45322</v>
@@ -34774,12 +35885,18 @@
       <c r="U186" s="78">
         <v>5000</v>
       </c>
-      <c r="V186" s="29">
+      <c r="V186">
+        <v>5000</v>
+      </c>
+      <c r="W186">
+        <v>5000</v>
+      </c>
+      <c r="X186" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="43">
         <f t="shared" si="273"/>
         <v>45323</v>
@@ -34846,12 +35963,18 @@
       <c r="U187" s="78">
         <v>5000</v>
       </c>
-      <c r="V187" s="29">
+      <c r="V187">
+        <v>5000</v>
+      </c>
+      <c r="W187">
+        <v>5000</v>
+      </c>
+      <c r="X187" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="43">
         <f t="shared" si="273"/>
         <v>45324</v>
@@ -34923,12 +36046,18 @@
       <c r="U188" s="78">
         <v>5000</v>
       </c>
-      <c r="V188" s="29">
+      <c r="V188">
+        <v>5000</v>
+      </c>
+      <c r="W188">
+        <v>5000</v>
+      </c>
+      <c r="X188" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="43">
         <f t="shared" si="273"/>
         <v>45325</v>
@@ -35000,12 +36129,18 @@
       <c r="U189" s="78">
         <v>5000</v>
       </c>
-      <c r="V189" s="29">
+      <c r="V189">
+        <v>5000</v>
+      </c>
+      <c r="W189">
+        <v>5000</v>
+      </c>
+      <c r="X189" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" s="43">
         <f t="shared" si="273"/>
         <v>45326</v>
@@ -35077,12 +36212,18 @@
       <c r="U190" s="78">
         <v>5000</v>
       </c>
-      <c r="V190" s="29">
+      <c r="V190">
+        <v>5000</v>
+      </c>
+      <c r="W190">
+        <v>5000</v>
+      </c>
+      <c r="X190" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="43">
         <f t="shared" si="273"/>
         <v>45327</v>
@@ -35154,12 +36295,18 @@
       <c r="U191" s="78">
         <v>5000</v>
       </c>
-      <c r="V191" s="29">
+      <c r="V191">
+        <v>5000</v>
+      </c>
+      <c r="W191">
+        <v>5000</v>
+      </c>
+      <c r="X191" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="43">
         <f t="shared" si="273"/>
         <v>45328</v>
@@ -35231,12 +36378,18 @@
       <c r="U192" s="78">
         <v>5000</v>
       </c>
-      <c r="V192" s="29">
+      <c r="V192">
+        <v>5000</v>
+      </c>
+      <c r="W192">
+        <v>5000</v>
+      </c>
+      <c r="X192" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="43">
         <f t="shared" si="273"/>
         <v>45329</v>
@@ -35308,12 +36461,18 @@
       <c r="U193" s="78">
         <v>5000</v>
       </c>
-      <c r="V193" s="29">
+      <c r="V193">
+        <v>5000</v>
+      </c>
+      <c r="W193">
+        <v>5000</v>
+      </c>
+      <c r="X193" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="43">
         <f t="shared" si="273"/>
         <v>45330</v>
@@ -35385,12 +36544,18 @@
       <c r="U194" s="78">
         <v>5000</v>
       </c>
-      <c r="V194" s="29">
+      <c r="V194">
+        <v>5000</v>
+      </c>
+      <c r="W194">
+        <v>5000</v>
+      </c>
+      <c r="X194" s="29">
         <f t="shared" ca="1" si="175"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="43">
         <f t="shared" si="273"/>
         <v>45331</v>
@@ -35462,12 +36627,18 @@
       <c r="U195" s="78">
         <v>5000</v>
       </c>
-      <c r="V195" s="29">
-        <f t="shared" ref="V195:V215" ca="1" si="371">IF(TODAY()&gt;A195,0,10000000)</f>
+      <c r="V195">
+        <v>5000</v>
+      </c>
+      <c r="W195">
+        <v>5000</v>
+      </c>
+      <c r="X195" s="29">
+        <f t="shared" ref="X195:X215" ca="1" si="371">IF(TODAY()&gt;A195,0,10000000)</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="43">
         <f t="shared" si="273"/>
         <v>45332</v>
@@ -35539,12 +36710,18 @@
       <c r="U196" s="78">
         <v>5000</v>
       </c>
-      <c r="V196" s="29">
+      <c r="V196">
+        <v>5000</v>
+      </c>
+      <c r="W196">
+        <v>5000</v>
+      </c>
+      <c r="X196" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="43">
         <f t="shared" si="273"/>
         <v>45333</v>
@@ -35616,12 +36793,18 @@
       <c r="U197" s="78">
         <v>5000</v>
       </c>
-      <c r="V197" s="29">
+      <c r="V197">
+        <v>5000</v>
+      </c>
+      <c r="W197">
+        <v>5000</v>
+      </c>
+      <c r="X197" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="43">
         <f t="shared" si="273"/>
         <v>45334</v>
@@ -35693,12 +36876,18 @@
       <c r="U198" s="78">
         <v>5000</v>
       </c>
-      <c r="V198" s="29">
+      <c r="V198">
+        <v>5000</v>
+      </c>
+      <c r="W198">
+        <v>5000</v>
+      </c>
+      <c r="X198" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="43">
         <f t="shared" si="273"/>
         <v>45335</v>
@@ -35770,12 +36959,18 @@
       <c r="U199" s="78">
         <v>5000</v>
       </c>
-      <c r="V199" s="29">
+      <c r="V199">
+        <v>5000</v>
+      </c>
+      <c r="W199">
+        <v>5000</v>
+      </c>
+      <c r="X199" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="43">
         <f t="shared" si="273"/>
         <v>45336</v>
@@ -35847,12 +37042,18 @@
       <c r="U200" s="78">
         <v>5000</v>
       </c>
-      <c r="V200" s="29">
+      <c r="V200">
+        <v>5000</v>
+      </c>
+      <c r="W200">
+        <v>5000</v>
+      </c>
+      <c r="X200" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="43">
         <f t="shared" si="273"/>
         <v>45337</v>
@@ -35924,12 +37125,18 @@
       <c r="U201" s="78">
         <v>5000</v>
       </c>
-      <c r="V201" s="29">
+      <c r="V201">
+        <v>5000</v>
+      </c>
+      <c r="W201">
+        <v>5000</v>
+      </c>
+      <c r="X201" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="43">
         <f t="shared" si="273"/>
         <v>45338</v>
@@ -36001,12 +37208,18 @@
       <c r="U202" s="78">
         <v>5000</v>
       </c>
-      <c r="V202" s="29">
+      <c r="V202">
+        <v>5000</v>
+      </c>
+      <c r="W202">
+        <v>5000</v>
+      </c>
+      <c r="X202" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="43">
         <f t="shared" si="273"/>
         <v>45339</v>
@@ -36078,12 +37291,18 @@
       <c r="U203" s="78">
         <v>5000</v>
       </c>
-      <c r="V203" s="29">
+      <c r="V203">
+        <v>5000</v>
+      </c>
+      <c r="W203">
+        <v>5000</v>
+      </c>
+      <c r="X203" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="43">
         <f t="shared" si="273"/>
         <v>45340</v>
@@ -36155,12 +37374,18 @@
       <c r="U204" s="78">
         <v>5000</v>
       </c>
-      <c r="V204" s="29">
+      <c r="V204">
+        <v>5000</v>
+      </c>
+      <c r="W204">
+        <v>5000</v>
+      </c>
+      <c r="X204" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="43">
         <f t="shared" si="273"/>
         <v>45341</v>
@@ -36232,12 +37457,18 @@
       <c r="U205" s="78">
         <v>5000</v>
       </c>
-      <c r="V205" s="29">
+      <c r="V205">
+        <v>5000</v>
+      </c>
+      <c r="W205">
+        <v>5000</v>
+      </c>
+      <c r="X205" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="43">
         <f t="shared" si="273"/>
         <v>45342</v>
@@ -36309,12 +37540,18 @@
       <c r="U206" s="78">
         <v>5000</v>
       </c>
-      <c r="V206" s="29">
+      <c r="V206">
+        <v>5000</v>
+      </c>
+      <c r="W206">
+        <v>5000</v>
+      </c>
+      <c r="X206" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="43">
         <f t="shared" si="273"/>
         <v>45343</v>
@@ -36386,12 +37623,18 @@
       <c r="U207" s="78">
         <v>5000</v>
       </c>
-      <c r="V207" s="29">
+      <c r="V207">
+        <v>5000</v>
+      </c>
+      <c r="W207">
+        <v>5000</v>
+      </c>
+      <c r="X207" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="43">
         <f t="shared" si="273"/>
         <v>45344</v>
@@ -36463,12 +37706,18 @@
       <c r="U208" s="78">
         <v>5000</v>
       </c>
-      <c r="V208" s="29">
+      <c r="V208">
+        <v>5000</v>
+      </c>
+      <c r="W208">
+        <v>5000</v>
+      </c>
+      <c r="X208" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="43">
         <f t="shared" si="273"/>
         <v>45345</v>
@@ -36540,12 +37789,18 @@
       <c r="U209" s="78">
         <v>5000</v>
       </c>
-      <c r="V209" s="29">
+      <c r="V209">
+        <v>5000</v>
+      </c>
+      <c r="W209">
+        <v>5000</v>
+      </c>
+      <c r="X209" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" s="43">
         <f t="shared" si="273"/>
         <v>45346</v>
@@ -36617,12 +37872,18 @@
       <c r="U210" s="78">
         <v>5000</v>
       </c>
-      <c r="V210" s="29">
+      <c r="V210">
+        <v>5000</v>
+      </c>
+      <c r="W210">
+        <v>5000</v>
+      </c>
+      <c r="X210" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="43">
         <f t="shared" si="273"/>
         <v>45347</v>
@@ -36694,12 +37955,18 @@
       <c r="U211" s="78">
         <v>5000</v>
       </c>
-      <c r="V211" s="29">
+      <c r="V211">
+        <v>5000</v>
+      </c>
+      <c r="W211">
+        <v>5000</v>
+      </c>
+      <c r="X211" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" s="43">
         <f t="shared" si="273"/>
         <v>45348</v>
@@ -36771,12 +38038,18 @@
       <c r="U212" s="78">
         <v>5000</v>
       </c>
-      <c r="V212" s="29">
+      <c r="V212">
+        <v>5000</v>
+      </c>
+      <c r="W212">
+        <v>5000</v>
+      </c>
+      <c r="X212" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" s="43">
         <f t="shared" si="273"/>
         <v>45349</v>
@@ -36848,12 +38121,18 @@
       <c r="U213" s="78">
         <v>5000</v>
       </c>
-      <c r="V213" s="29">
+      <c r="V213">
+        <v>5000</v>
+      </c>
+      <c r="W213">
+        <v>5000</v>
+      </c>
+      <c r="X213" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" s="43">
         <f t="shared" si="273"/>
         <v>45350</v>
@@ -36925,12 +38204,18 @@
       <c r="U214" s="78">
         <v>5000</v>
       </c>
-      <c r="V214" s="29">
+      <c r="V214">
+        <v>5000</v>
+      </c>
+      <c r="W214">
+        <v>5000</v>
+      </c>
+      <c r="X214" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" s="43">
         <f t="shared" si="273"/>
         <v>45351</v>
@@ -37002,12 +38287,18 @@
       <c r="U215" s="78">
         <v>5000</v>
       </c>
-      <c r="V215" s="29">
+      <c r="V215">
+        <v>5000</v>
+      </c>
+      <c r="W215">
+        <v>5000</v>
+      </c>
+      <c r="X215" s="29">
         <f t="shared" ca="1" si="371"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" s="55">
         <f t="shared" ref="A216:A246" si="433">A215+1</f>
         <v>45352</v>
@@ -37038,8 +38329,14 @@
       <c r="U216" s="78">
         <v>4500</v>
       </c>
+      <c r="V216" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W216" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="217" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="55">
         <f t="shared" si="433"/>
         <v>45353</v>
@@ -37069,8 +38366,14 @@
       <c r="U217" s="78">
         <v>4500</v>
       </c>
+      <c r="V217" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W217" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="218" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="55">
         <f t="shared" si="433"/>
         <v>45354</v>
@@ -37100,8 +38403,14 @@
       <c r="U218" s="78">
         <v>4500</v>
       </c>
+      <c r="V218" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W218" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="219" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="55">
         <f t="shared" si="433"/>
         <v>45355</v>
@@ -37131,8 +38440,14 @@
       <c r="U219" s="78">
         <v>4500</v>
       </c>
+      <c r="V219" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W219" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="220" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="55">
         <f t="shared" si="433"/>
         <v>45356</v>
@@ -37162,8 +38477,14 @@
       <c r="U220" s="78">
         <v>4500</v>
       </c>
+      <c r="V220" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W220" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="221" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="55">
         <f t="shared" si="433"/>
         <v>45357</v>
@@ -37193,8 +38514,14 @@
       <c r="U221" s="78">
         <v>4500</v>
       </c>
+      <c r="V221" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W221" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="222" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="55">
         <f t="shared" si="433"/>
         <v>45358</v>
@@ -37224,8 +38551,14 @@
       <c r="U222" s="78">
         <v>4500</v>
       </c>
+      <c r="V222" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W222" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="223" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="55">
         <f t="shared" si="433"/>
         <v>45359</v>
@@ -37255,8 +38588,14 @@
       <c r="U223" s="78">
         <v>4500</v>
       </c>
+      <c r="V223" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W223" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="224" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="55">
         <f t="shared" si="433"/>
         <v>45360</v>
@@ -37286,8 +38625,14 @@
       <c r="U224" s="78">
         <v>4500</v>
       </c>
+      <c r="V224" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W224" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="55">
         <f t="shared" si="433"/>
         <v>45361</v>
@@ -37317,8 +38662,14 @@
       <c r="U225" s="78">
         <v>4500</v>
       </c>
+      <c r="V225" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W225" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="55">
         <f t="shared" si="433"/>
         <v>45362</v>
@@ -37348,8 +38699,14 @@
       <c r="U226" s="78">
         <v>4500</v>
       </c>
+      <c r="V226" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W226" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="55">
         <f t="shared" si="433"/>
         <v>45363</v>
@@ -37379,8 +38736,14 @@
       <c r="U227" s="78">
         <v>4500</v>
       </c>
+      <c r="V227" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W227" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="55">
         <f t="shared" si="433"/>
         <v>45364</v>
@@ -37410,8 +38773,14 @@
       <c r="U228" s="78">
         <v>4500</v>
       </c>
+      <c r="V228" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W228" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="55">
         <f t="shared" si="433"/>
         <v>45365</v>
@@ -37441,8 +38810,14 @@
       <c r="U229" s="78">
         <v>4500</v>
       </c>
+      <c r="V229" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W229" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="55">
         <f t="shared" si="433"/>
         <v>45366</v>
@@ -37472,8 +38847,14 @@
       <c r="U230" s="78">
         <v>4500</v>
       </c>
+      <c r="V230" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W230" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="55">
         <f t="shared" si="433"/>
         <v>45367</v>
@@ -37503,8 +38884,14 @@
       <c r="U231" s="78">
         <v>4500</v>
       </c>
+      <c r="V231" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W231" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="55">
         <f t="shared" si="433"/>
         <v>45368</v>
@@ -37534,8 +38921,14 @@
       <c r="U232" s="78">
         <v>4500</v>
       </c>
+      <c r="V232" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W232" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="55">
         <f t="shared" si="433"/>
         <v>45369</v>
@@ -37565,8 +38958,14 @@
       <c r="U233" s="78">
         <v>4500</v>
       </c>
+      <c r="V233" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W233" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="55">
         <f t="shared" si="433"/>
         <v>45370</v>
@@ -37596,8 +38995,14 @@
       <c r="U234" s="78">
         <v>4500</v>
       </c>
+      <c r="V234" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W234" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="55">
         <f t="shared" si="433"/>
         <v>45371</v>
@@ -37627,8 +39032,14 @@
       <c r="U235" s="78">
         <v>4500</v>
       </c>
+      <c r="V235" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W235" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="55">
         <f t="shared" si="433"/>
         <v>45372</v>
@@ -37658,8 +39069,14 @@
       <c r="U236" s="78">
         <v>4500</v>
       </c>
+      <c r="V236" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W236" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="55">
         <f t="shared" si="433"/>
         <v>45373</v>
@@ -37689,8 +39106,14 @@
       <c r="U237" s="78">
         <v>4500</v>
       </c>
+      <c r="V237" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W237" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="55">
         <f t="shared" si="433"/>
         <v>45374</v>
@@ -37720,8 +39143,14 @@
       <c r="U238" s="78">
         <v>4500</v>
       </c>
+      <c r="V238" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W238" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="55">
         <f t="shared" si="433"/>
         <v>45375</v>
@@ -37751,8 +39180,14 @@
       <c r="U239" s="78">
         <v>4500</v>
       </c>
+      <c r="V239" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W239" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="55">
         <f t="shared" si="433"/>
         <v>45376</v>
@@ -37782,8 +39217,14 @@
       <c r="U240" s="78">
         <v>4500</v>
       </c>
+      <c r="V240" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W240" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" s="55">
         <f t="shared" si="433"/>
         <v>45377</v>
@@ -37813,8 +39254,14 @@
       <c r="U241" s="78">
         <v>4500</v>
       </c>
+      <c r="V241" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W241" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="55">
         <f t="shared" si="433"/>
         <v>45378</v>
@@ -37844,8 +39291,14 @@
       <c r="U242" s="78">
         <v>4500</v>
       </c>
+      <c r="V242" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W242" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" s="55">
         <f t="shared" si="433"/>
         <v>45379</v>
@@ -37875,8 +39328,14 @@
       <c r="U243" s="78">
         <v>4500</v>
       </c>
+      <c r="V243" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W243" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="55">
         <f t="shared" si="433"/>
         <v>45380</v>
@@ -37906,8 +39365,14 @@
       <c r="U244" s="78">
         <v>4500</v>
       </c>
+      <c r="V244" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W244" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="55">
         <f t="shared" si="433"/>
         <v>45381</v>
@@ -37937,8 +39402,14 @@
       <c r="U245" s="78">
         <v>4500</v>
       </c>
+      <c r="V245" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W245" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" s="55">
         <f t="shared" si="433"/>
         <v>45382</v>
@@ -37968,14 +39439,20 @@
       <c r="U246" s="78">
         <v>4500</v>
       </c>
+      <c r="V246" s="78">
+        <v>4500</v>
+      </c>
+      <c r="W246" s="78">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="55"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="55"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
         <v>23</v>
       </c>
@@ -38053,11 +39530,19 @@
         <v>7436.666666666667</v>
       </c>
       <c r="U249" s="38">
-        <f t="shared" ref="U249" si="467">AVERAGE(U34:U63)</f>
+        <f t="shared" ref="U249:W249" si="467">AVERAGE(U34:U63)</f>
         <v>7346.7</v>
       </c>
+      <c r="V249" s="38">
+        <f t="shared" si="467"/>
+        <v>7346.7</v>
+      </c>
+      <c r="W249" s="38">
+        <f t="shared" si="467"/>
+        <v>7346.7</v>
+      </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>24</v>
       </c>
@@ -38135,11 +39620,19 @@
         <v>6006.4516129032254</v>
       </c>
       <c r="U250" s="23">
-        <f t="shared" ref="U250" si="471">AVERAGE(U64:U94)</f>
+        <f t="shared" ref="U250:W250" si="471">AVERAGE(U64:U94)</f>
         <v>6600</v>
       </c>
+      <c r="V250" s="23">
+        <f t="shared" si="471"/>
+        <v>6451.6129032258068</v>
+      </c>
+      <c r="W250" s="23">
+        <f t="shared" si="471"/>
+        <v>6361.2903225806449</v>
+      </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
         <v>25</v>
       </c>
@@ -38217,11 +39710,19 @@
         <v>5000</v>
       </c>
       <c r="U251" s="23">
-        <f t="shared" ref="U251" si="475">AVERAGE(U95:U124)</f>
+        <f t="shared" ref="U251:W251" si="475">AVERAGE(U95:U124)</f>
         <v>5520</v>
       </c>
+      <c r="V251" s="23">
+        <f t="shared" si="475"/>
+        <v>5163.333333333333</v>
+      </c>
+      <c r="W251" s="23">
+        <f t="shared" si="475"/>
+        <v>5163.333333333333</v>
+      </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>26</v>
       </c>
@@ -38299,11 +39800,19 @@
         <v>5000</v>
       </c>
       <c r="U252" s="23">
-        <f t="shared" ref="U252" si="479">AVERAGE(U125:U155)</f>
+        <f t="shared" ref="U252:W252" si="479">AVERAGE(U125:U155)</f>
+        <v>5000</v>
+      </c>
+      <c r="V252" s="23">
+        <f t="shared" si="479"/>
+        <v>5000</v>
+      </c>
+      <c r="W252" s="23">
+        <f t="shared" si="479"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>27</v>
       </c>
@@ -38381,11 +39890,19 @@
         <v>5000</v>
       </c>
       <c r="U253" s="40">
-        <f t="shared" ref="U253" si="483">AVERAGE(U156:U186)</f>
+        <f t="shared" ref="U253:W253" si="483">AVERAGE(U156:U186)</f>
+        <v>5000</v>
+      </c>
+      <c r="V253" s="40">
+        <f t="shared" si="483"/>
+        <v>5000</v>
+      </c>
+      <c r="W253" s="40">
+        <f t="shared" si="483"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>28</v>
       </c>
@@ -38463,11 +39980,19 @@
         <v>5000</v>
       </c>
       <c r="U254" s="40">
-        <f t="shared" ref="U254" si="487">AVERAGE(U187:U215)</f>
+        <f t="shared" ref="U254:W254" si="487">AVERAGE(U187:U215)</f>
+        <v>5000</v>
+      </c>
+      <c r="V254" s="40">
+        <f t="shared" si="487"/>
+        <v>5000</v>
+      </c>
+      <c r="W254" s="40">
+        <f t="shared" si="487"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>29</v>
       </c>
@@ -38492,7 +40017,7 @@
       <c r="T255" s="18"/>
       <c r="U255" s="18"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>30</v>
       </c>
@@ -38573,8 +40098,16 @@
         <f>((1.98347*30)*U249)/1000</f>
         <v>437.15877146999998</v>
       </c>
+      <c r="V256" s="23">
+        <f t="shared" ref="V256:W256" si="491">((1.98347*30)*V249)/1000</f>
+        <v>437.15877146999998</v>
+      </c>
+      <c r="W256" s="23">
+        <f t="shared" si="491"/>
+        <v>437.15877146999998</v>
+      </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>31</v>
       </c>
@@ -38592,59 +40125,59 @@
         <v>347.10725000000002</v>
       </c>
       <c r="F257" s="23">
-        <f t="shared" ref="F257:P257" si="491">((1.98347*31)*F250)/1000</f>
+        <f t="shared" ref="F257:P257" si="492">((1.98347*31)*F250)/1000</f>
         <v>368.92542000000003</v>
       </c>
       <c r="G257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>370.90889000000004</v>
       </c>
       <c r="H257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>399.66920500000003</v>
       </c>
       <c r="I257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>399.66920500000003</v>
       </c>
       <c r="J257" s="23">
-        <f t="shared" ref="J257" si="492">((1.98347*31)*J250)/1000</f>
+        <f t="shared" ref="J257" si="493">((1.98347*31)*J250)/1000</f>
         <v>399.66920500000003</v>
       </c>
       <c r="K257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>447.86752600000005</v>
       </c>
       <c r="L257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>454.21463</v>
       </c>
       <c r="M257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>459.76834600000001</v>
       </c>
       <c r="N257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>452.72702750000002</v>
       </c>
       <c r="O257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>452.13198649999998</v>
       </c>
       <c r="P257" s="23">
-        <f t="shared" si="491"/>
+        <f t="shared" si="492"/>
         <v>452.72702750000002</v>
       </c>
       <c r="Q257" s="23">
-        <f t="shared" ref="Q257:S257" si="493">((1.98347*31)*Q250)/1000</f>
+        <f t="shared" ref="Q257:S257" si="494">((1.98347*31)*Q250)/1000</f>
         <v>453.71876250000003</v>
       </c>
       <c r="R257" s="23">
-        <f t="shared" si="493"/>
+        <f t="shared" si="494"/>
         <v>436.36340000000001</v>
       </c>
       <c r="S257" s="23">
-        <f t="shared" si="493"/>
+        <f t="shared" si="494"/>
         <v>369.12376699999999</v>
       </c>
       <c r="T257" s="23">
@@ -38655,42 +40188,50 @@
         <f>((1.98347*31)*U250)/1000</f>
         <v>405.81796200000008</v>
       </c>
+      <c r="V257" s="23">
+        <f t="shared" ref="V257:W257" si="495">((1.98347*31)*V250)/1000</f>
+        <v>396.69400000000007</v>
+      </c>
+      <c r="W257" s="23">
+        <f t="shared" si="495"/>
+        <v>391.14028400000007</v>
+      </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B258" s="28"/>
       <c r="C258" s="23">
-        <f t="shared" ref="C258:H258" si="494">((1.98347*30)*C251)/1000</f>
+        <f t="shared" ref="C258:H258" si="496">((1.98347*30)*C251)/1000</f>
         <v>297.52050000000003</v>
       </c>
       <c r="D258" s="23">
-        <f t="shared" si="494"/>
+        <f t="shared" si="496"/>
         <v>297.52050000000003</v>
       </c>
       <c r="E258" s="23">
-        <f t="shared" si="494"/>
+        <f t="shared" si="496"/>
         <v>297.52050000000003</v>
       </c>
       <c r="F258" s="23">
-        <f t="shared" si="494"/>
+        <f t="shared" si="496"/>
         <v>297.52050000000003</v>
       </c>
       <c r="G258" s="23">
-        <f t="shared" si="494"/>
+        <f t="shared" si="496"/>
         <v>297.52050000000003</v>
       </c>
       <c r="H258" s="23">
-        <f t="shared" si="494"/>
+        <f t="shared" si="496"/>
         <v>297.52050000000003</v>
       </c>
       <c r="I258" s="23">
-        <f t="shared" ref="I258:J258" si="495">((1.98347*30)*I251)/1000</f>
+        <f t="shared" ref="I258:J258" si="497">((1.98347*30)*I251)/1000</f>
         <v>297.52050000000003</v>
       </c>
       <c r="J258" s="23">
-        <f t="shared" si="495"/>
+        <f t="shared" si="497"/>
         <v>327.27254999999997</v>
       </c>
       <c r="K258" s="23">
@@ -38714,7 +40255,7 @@
         <v>315.37172999999996</v>
       </c>
       <c r="P258" s="23">
-        <f t="shared" ref="P258" si="496">((1.98347*30)*P251)/1000</f>
+        <f t="shared" ref="P258" si="498">((1.98347*30)*P251)/1000</f>
         <v>315.37172999999996</v>
       </c>
       <c r="Q258" s="23">
@@ -38722,11 +40263,11 @@
         <v>364.56178600000004</v>
       </c>
       <c r="R258" s="23">
-        <f t="shared" ref="R258:S258" si="497">((1.98347*30)*R251)/1000</f>
+        <f t="shared" ref="R258:S258" si="499">((1.98347*30)*R251)/1000</f>
         <v>356.627906</v>
       </c>
       <c r="S258" s="23">
-        <f t="shared" si="497"/>
+        <f t="shared" si="499"/>
         <v>297.52050000000003</v>
       </c>
       <c r="T258" s="23">
@@ -38737,8 +40278,16 @@
         <f>((1.98347*30)*U251)/1000</f>
         <v>328.46263199999999</v>
       </c>
+      <c r="V258" s="23">
+        <f t="shared" ref="V258:W258" si="500">((1.98347*30)*V251)/1000</f>
+        <v>307.23950299999996</v>
+      </c>
+      <c r="W258" s="23">
+        <f t="shared" si="500"/>
+        <v>307.23950299999996</v>
+      </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
         <v>33</v>
       </c>
@@ -38756,59 +40305,59 @@
         <v>368.92542000000003</v>
       </c>
       <c r="F259" s="23">
-        <f t="shared" ref="F259:P259" si="498">((1.98347*31)*F252)/1000</f>
+        <f t="shared" ref="F259:P259" si="501">((1.98347*31)*F252)/1000</f>
         <v>307.43785000000003</v>
       </c>
       <c r="G259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="H259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="I259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="J259" s="23">
-        <f t="shared" ref="J259" si="499">((1.98347*31)*J252)/1000</f>
+        <f t="shared" ref="J259" si="502">((1.98347*31)*J252)/1000</f>
         <v>307.43785000000003</v>
       </c>
       <c r="K259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="L259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="M259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="N259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="O259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="P259" s="23">
-        <f t="shared" si="498"/>
+        <f t="shared" si="501"/>
         <v>307.43785000000003</v>
       </c>
       <c r="Q259" s="23">
-        <f t="shared" ref="Q259:S259" si="500">((1.98347*31)*Q252)/1000</f>
+        <f t="shared" ref="Q259:S259" si="503">((1.98347*31)*Q252)/1000</f>
         <v>307.63619699999998</v>
       </c>
       <c r="R259" s="23">
-        <f t="shared" si="500"/>
+        <f t="shared" si="503"/>
         <v>307.43785000000003</v>
       </c>
       <c r="S259" s="23">
-        <f t="shared" si="500"/>
+        <f t="shared" si="503"/>
         <v>307.43785000000003</v>
       </c>
       <c r="T259" s="23">
@@ -38819,8 +40368,16 @@
         <f>((1.98347*31)*U252)/1000</f>
         <v>307.43785000000003</v>
       </c>
+      <c r="V259" s="23">
+        <f t="shared" ref="V259:W259" si="504">((1.98347*31)*V252)/1000</f>
+        <v>307.43785000000003</v>
+      </c>
+      <c r="W259" s="23">
+        <f t="shared" si="504"/>
+        <v>307.43785000000003</v>
+      </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
         <v>34</v>
       </c>
@@ -38837,59 +40394,59 @@
         <v>368.92542000000003</v>
       </c>
       <c r="F260" s="23">
-        <f t="shared" ref="F260:P260" si="501">((1.98347*31)*F253)/1000</f>
+        <f t="shared" ref="F260:P260" si="505">((1.98347*31)*F253)/1000</f>
         <v>276.69406500000002</v>
       </c>
       <c r="G260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>307.43785000000003</v>
       </c>
       <c r="H260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>276.69406500000002</v>
       </c>
       <c r="I260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>276.69406500000002</v>
       </c>
       <c r="J260" s="23">
-        <f t="shared" ref="J260" si="502">((1.98347*31)*J253)/1000</f>
+        <f t="shared" ref="J260" si="506">((1.98347*31)*J253)/1000</f>
         <v>307.43785000000003</v>
       </c>
       <c r="K260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>307.43785000000003</v>
       </c>
       <c r="L260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>307.43785000000003</v>
       </c>
       <c r="M260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>307.43785000000003</v>
       </c>
       <c r="N260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>307.43785000000003</v>
       </c>
       <c r="O260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>307.43785000000003</v>
       </c>
       <c r="P260" s="23">
-        <f t="shared" si="501"/>
+        <f t="shared" si="505"/>
         <v>276.69406500000002</v>
       </c>
       <c r="Q260" s="23">
-        <f t="shared" ref="Q260:S260" si="503">((1.98347*31)*Q253)/1000</f>
+        <f t="shared" ref="Q260:S260" si="507">((1.98347*31)*Q253)/1000</f>
         <v>276.69406500000002</v>
       </c>
       <c r="R260" s="23">
-        <f t="shared" si="503"/>
+        <f t="shared" si="507"/>
         <v>307.43785000000003</v>
       </c>
       <c r="S260" s="23">
-        <f t="shared" si="503"/>
+        <f t="shared" si="507"/>
         <v>307.43785000000003</v>
       </c>
       <c r="T260" s="23">
@@ -38900,8 +40457,16 @@
         <f>((1.98347*31)*U253)/1000</f>
         <v>307.43785000000003</v>
       </c>
+      <c r="V260" s="23">
+        <f t="shared" ref="V260:W260" si="508">((1.98347*31)*V253)/1000</f>
+        <v>307.43785000000003</v>
+      </c>
+      <c r="W260" s="23">
+        <f t="shared" si="508"/>
+        <v>307.43785000000003</v>
+      </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
         <v>35</v>
       </c>
@@ -38918,59 +40483,59 @@
         <v>575.20630000000006</v>
       </c>
       <c r="F261" s="23">
-        <f t="shared" ref="F261:P261" si="504">((1.98347*29)*F254)/1000</f>
+        <f t="shared" ref="F261:P261" si="509">((1.98347*29)*F254)/1000</f>
         <v>230.08252000000002</v>
       </c>
       <c r="G261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>287.60315000000003</v>
       </c>
       <c r="H261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>230.08252000000002</v>
       </c>
       <c r="I261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>230.08252000000002</v>
       </c>
       <c r="J261" s="23">
-        <f t="shared" ref="J261" si="505">((1.98347*29)*J254)/1000</f>
+        <f t="shared" ref="J261" si="510">((1.98347*29)*J254)/1000</f>
         <v>287.60315000000003</v>
       </c>
       <c r="K261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>287.60315000000003</v>
       </c>
       <c r="L261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>287.60315000000003</v>
       </c>
       <c r="M261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>287.60315000000003</v>
       </c>
       <c r="N261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>287.60315000000003</v>
       </c>
       <c r="O261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>287.60315000000003</v>
       </c>
       <c r="P261" s="23">
-        <f t="shared" si="504"/>
+        <f t="shared" si="509"/>
         <v>230.08252000000002</v>
       </c>
       <c r="Q261" s="23">
-        <f t="shared" ref="Q261:S261" si="506">((1.98347*29)*Q254)/1000</f>
+        <f t="shared" ref="Q261:S261" si="511">((1.98347*29)*Q254)/1000</f>
         <v>230.08252000000002</v>
       </c>
       <c r="R261" s="23">
-        <f t="shared" si="506"/>
+        <f t="shared" si="511"/>
         <v>287.60315000000003</v>
       </c>
       <c r="S261" s="23">
-        <f t="shared" si="506"/>
+        <f t="shared" si="511"/>
         <v>287.60315000000003</v>
       </c>
       <c r="T261" s="23">
@@ -38981,8 +40546,16 @@
         <f>((1.98347*29)*U254)/1000</f>
         <v>287.60315000000003</v>
       </c>
+      <c r="V261" s="23">
+        <f t="shared" ref="V261:W261" si="512">((1.98347*29)*V254)/1000</f>
+        <v>287.60315000000003</v>
+      </c>
+      <c r="W261" s="23">
+        <f t="shared" si="512"/>
+        <v>287.60315000000003</v>
+      </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" s="16" t="s">
         <v>36</v>
       </c>
@@ -38999,19 +40572,19 @@
         <v>2395.7977105400005</v>
       </c>
       <c r="F262" s="22">
-        <f t="shared" ref="F262:O262" si="507">SUM(F256:F261)</f>
+        <f t="shared" ref="F262:O262" si="513">SUM(F256:F261)</f>
         <v>1867.4370050000002</v>
       </c>
       <c r="G262" s="22">
-        <f t="shared" si="507"/>
+        <f t="shared" si="513"/>
         <v>1959.6683600000001</v>
       </c>
       <c r="H262" s="22">
-        <f t="shared" si="507"/>
+        <f t="shared" si="513"/>
         <v>1927.9328399999999</v>
       </c>
       <c r="I262" s="22">
-        <f t="shared" ref="I262" si="508">SUM(I256:I261)</f>
+        <f t="shared" ref="I262" si="514">SUM(I256:I261)</f>
         <v>1940.2303540000003</v>
       </c>
       <c r="J262" s="22">
@@ -39019,27 +40592,27 @@
         <v>2063.8005349999999</v>
       </c>
       <c r="K262" s="22">
-        <f t="shared" si="507"/>
+        <f t="shared" si="513"/>
         <v>2104.0649760000001</v>
       </c>
       <c r="L262" s="22">
-        <f t="shared" si="507"/>
+        <f t="shared" si="513"/>
         <v>2110.4120800000001</v>
       </c>
       <c r="M262" s="22">
-        <f t="shared" si="507"/>
+        <f t="shared" si="513"/>
         <v>2120.8252975</v>
       </c>
       <c r="N262" s="22">
-        <f t="shared" si="507"/>
+        <f t="shared" si="513"/>
         <v>2129.1558715000001</v>
       </c>
       <c r="O262" s="22">
-        <f t="shared" si="507"/>
+        <f t="shared" si="513"/>
         <v>2201.7508735000001</v>
       </c>
       <c r="P262" s="22">
-        <f t="shared" ref="P262" si="509">SUM(P256:P261)</f>
+        <f t="shared" ref="P262" si="515">SUM(P256:P261)</f>
         <v>2041.2881505</v>
       </c>
       <c r="Q262" s="22">
@@ -39047,31 +40620,39 @@
         <v>2095.0401875000002</v>
       </c>
       <c r="R262" s="22">
-        <f t="shared" ref="R262:S262" si="510">SUM(R256:R261)</f>
+        <f t="shared" ref="R262:S262" si="516">SUM(R256:R261)</f>
         <v>2143.3376819999999</v>
       </c>
       <c r="S262" s="22">
-        <f t="shared" si="510"/>
+        <f t="shared" si="516"/>
         <v>2006.2799050000003</v>
       </c>
       <c r="T262" s="22">
-        <f t="shared" ref="T262:U262" si="511">SUM(T256:T261)</f>
+        <f t="shared" ref="T262:U262" si="517">SUM(T256:T261)</f>
         <v>2011.8336210000002</v>
       </c>
       <c r="U262" s="22">
-        <f t="shared" si="511"/>
+        <f t="shared" si="517"/>
         <v>2073.9182154700002</v>
       </c>
+      <c r="V262" s="22">
+        <f t="shared" ref="V262:W262" si="518">SUM(V256:V261)</f>
+        <v>2043.5711244700001</v>
+      </c>
+      <c r="W262" s="22">
+        <f t="shared" si="518"/>
+        <v>2038.0174084700002</v>
+      </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" s="28"/>
-      <c r="V264" s="28"/>
+      <c r="X264" s="28"/>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" s="28"/>
-      <c r="V265" s="28"/>
+      <c r="X265" s="28"/>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" s="16" t="s">
         <v>37</v>
       </c>
@@ -39108,9 +40689,9 @@
       <c r="U266">
         <v>9</v>
       </c>
-      <c r="V266" s="28"/>
+      <c r="X266" s="28"/>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
         <v>38</v>
       </c>
@@ -39123,9 +40704,9 @@
       <c r="J267" s="18">
         <v>3307</v>
       </c>
-      <c r="V267" s="28"/>
+      <c r="X267" s="28"/>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" s="16" t="s">
         <v>39</v>
       </c>
@@ -39138,9 +40719,9 @@
       <c r="J268" s="18">
         <v>3181</v>
       </c>
-      <c r="V268" s="28"/>
+      <c r="X268" s="28"/>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
         <v>40</v>
       </c>
@@ -39153,9 +40734,9 @@
       <c r="J269" s="18">
         <v>3485</v>
       </c>
-      <c r="V269" s="28"/>
+      <c r="X269" s="28"/>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270" s="16" t="s">
         <v>41</v>
       </c>
@@ -39168,15 +40749,15 @@
       <c r="J270" s="18">
         <v>3296</v>
       </c>
-      <c r="V270" s="28"/>
+      <c r="X270" s="28"/>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="V271" s="28"/>
+      <c r="X271" s="28"/>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>43</v>
       </c>
@@ -39304,110 +40885,110 @@
   <dimension ref="A1:AV71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="202" t="s">
+      <c r="C1" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="202" t="s">
+      <c r="E1" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="202" t="s">
+      <c r="F1" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="206" t="s">
+      <c r="G1" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="202" t="s">
+      <c r="H1" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="209" t="s">
+      <c r="I1" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="198" t="s">
+      <c r="J1" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="212" t="s">
+      <c r="K1" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="198" t="s">
+      <c r="L1" s="177" t="s">
         <v>64</v>
       </c>
       <c r="M1" s="168"/>
       <c r="N1" s="168"/>
-      <c r="O1" s="181" t="s">
+      <c r="O1" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="184" t="s">
+      <c r="P1" s="199" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="185"/>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="185"/>
-      <c r="AJ1" s="185"/>
-      <c r="AK1" s="185"/>
-      <c r="AL1" s="185"/>
-      <c r="AM1" s="185"/>
-      <c r="AN1" s="185"/>
-      <c r="AO1" s="185"/>
-      <c r="AP1" s="185"/>
-      <c r="AQ1" s="185"/>
-      <c r="AR1" s="185"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="200"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="200"/>
+      <c r="AJ1" s="200"/>
+      <c r="AK1" s="200"/>
+      <c r="AL1" s="200"/>
+      <c r="AM1" s="200"/>
+      <c r="AN1" s="200"/>
+      <c r="AO1" s="200"/>
+      <c r="AP1" s="200"/>
+      <c r="AQ1" s="200"/>
+      <c r="AR1" s="200"/>
       <c r="AS1" s="168"/>
       <c r="AT1" s="168"/>
       <c r="AU1" s="168"/>
       <c r="AV1" s="168"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="191"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="199"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="178"/>
       <c r="M2" s="168"/>
       <c r="N2" s="168"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="186" t="s">
+      <c r="O2" s="197"/>
+      <c r="P2" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="190" t="s">
+      <c r="Q2" s="202"/>
+      <c r="R2" s="180" t="s">
         <v>67</v>
       </c>
       <c r="S2" s="82">
@@ -39500,24 +41081,24 @@
       <c r="AV2" s="168"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="191"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="199"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="178"/>
       <c r="M3" s="168"/>
       <c r="N3" s="168"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="191"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="181"/>
       <c r="S3" s="88">
         <v>45069</v>
       </c>
@@ -39608,46 +41189,46 @@
       <c r="AV3" s="168"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="199"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="178"/>
       <c r="M4" s="168"/>
       <c r="N4" s="168"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="192" t="s">
+      <c r="O4" s="197"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="192"/>
-      <c r="U4" s="192"/>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192"/>
-      <c r="X4" s="192"/>
-      <c r="Y4" s="192"/>
-      <c r="Z4" s="192"/>
-      <c r="AA4" s="192"/>
-      <c r="AB4" s="192"/>
-      <c r="AC4" s="192"/>
-      <c r="AD4" s="192"/>
-      <c r="AE4" s="192"/>
-      <c r="AF4" s="192"/>
-      <c r="AG4" s="192"/>
-      <c r="AH4" s="192"/>
-      <c r="AI4" s="192"/>
-      <c r="AJ4" s="192"/>
-      <c r="AK4" s="192"/>
-      <c r="AL4" s="192"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="205"/>
+      <c r="AC4" s="205"/>
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="205"/>
+      <c r="AH4" s="205"/>
+      <c r="AI4" s="205"/>
+      <c r="AJ4" s="205"/>
+      <c r="AK4" s="205"/>
+      <c r="AL4" s="205"/>
       <c r="AM4" s="168"/>
       <c r="AN4" s="168"/>
       <c r="AO4" s="168"/>
@@ -39660,28 +41241,28 @@
       <c r="AV4" s="168"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="201"/>
-      <c r="B5" s="204"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="200"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="179"/>
       <c r="M5" s="168"/>
       <c r="N5" s="168"/>
-      <c r="O5" s="183"/>
+      <c r="O5" s="198"/>
       <c r="P5" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="187" t="s">
+      <c r="Q5" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="193"/>
+      <c r="R5" s="206"/>
       <c r="S5" s="96">
         <v>13000</v>
       </c>
@@ -39816,10 +41397,10 @@
       <c r="P6" s="110">
         <v>4001</v>
       </c>
-      <c r="Q6" s="194">
+      <c r="Q6" s="173">
         <v>15</v>
       </c>
-      <c r="R6" s="195"/>
+      <c r="R6" s="174"/>
       <c r="S6" s="111">
         <v>15</v>
       </c>
@@ -39958,10 +41539,10 @@
       <c r="P7" s="114">
         <v>4002</v>
       </c>
-      <c r="Q7" s="196">
+      <c r="Q7" s="175">
         <v>37</v>
       </c>
-      <c r="R7" s="197"/>
+      <c r="R7" s="176"/>
       <c r="S7" s="103" t="s">
         <v>47</v>
       </c>
@@ -40085,7 +41666,7 @@
       <c r="K8" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="179" t="s">
+      <c r="L8" s="207" t="s">
         <v>76</v>
       </c>
       <c r="M8" s="113" t="s">
@@ -40100,10 +41681,10 @@
       <c r="P8" s="128">
         <v>4003</v>
       </c>
-      <c r="Q8" s="172">
+      <c r="Q8" s="209">
         <v>18</v>
       </c>
-      <c r="R8" s="173"/>
+      <c r="R8" s="210"/>
       <c r="S8" s="129" t="s">
         <v>47</v>
       </c>
@@ -40227,7 +41808,7 @@
       <c r="K9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="180"/>
+      <c r="L9" s="208"/>
       <c r="M9" s="113" t="s">
         <v>47</v>
       </c>
@@ -40240,10 +41821,10 @@
       <c r="P9" s="128">
         <v>4004</v>
       </c>
-      <c r="Q9" s="170">
+      <c r="Q9" s="211">
         <v>19</v>
       </c>
-      <c r="R9" s="171"/>
+      <c r="R9" s="212"/>
       <c r="S9" s="129" t="s">
         <v>47</v>
       </c>
@@ -40382,10 +41963,10 @@
       <c r="P10" s="128">
         <v>4005</v>
       </c>
-      <c r="Q10" s="172">
+      <c r="Q10" s="209">
         <v>17</v>
       </c>
-      <c r="R10" s="173"/>
+      <c r="R10" s="210"/>
       <c r="S10" s="129" t="s">
         <v>47</v>
       </c>
@@ -40524,10 +42105,10 @@
       <c r="P11" s="128">
         <v>4006</v>
       </c>
-      <c r="Q11" s="170">
+      <c r="Q11" s="211">
         <v>15</v>
       </c>
-      <c r="R11" s="171"/>
+      <c r="R11" s="212"/>
       <c r="S11" s="129" t="s">
         <v>47</v>
       </c>
@@ -40666,10 +42247,10 @@
       <c r="P12" s="128">
         <v>4007</v>
       </c>
-      <c r="Q12" s="172">
+      <c r="Q12" s="209">
         <v>54</v>
       </c>
-      <c r="R12" s="173"/>
+      <c r="R12" s="210"/>
       <c r="S12" s="129" t="s">
         <v>47</v>
       </c>
@@ -40808,10 +42389,10 @@
       <c r="P13" s="128">
         <v>4008</v>
       </c>
-      <c r="Q13" s="170">
+      <c r="Q13" s="211">
         <v>18</v>
       </c>
-      <c r="R13" s="171"/>
+      <c r="R13" s="212"/>
       <c r="S13" s="129" t="s">
         <v>47</v>
       </c>
@@ -40950,10 +42531,10 @@
       <c r="P14" s="128">
         <v>4009</v>
       </c>
-      <c r="Q14" s="172">
+      <c r="Q14" s="209">
         <v>13</v>
       </c>
-      <c r="R14" s="173"/>
+      <c r="R14" s="210"/>
       <c r="S14" s="129" t="s">
         <v>47</v>
       </c>
@@ -41090,10 +42671,10 @@
       <c r="P15" s="128">
         <v>4010</v>
       </c>
-      <c r="Q15" s="170">
+      <c r="Q15" s="211">
         <v>12</v>
       </c>
-      <c r="R15" s="171"/>
+      <c r="R15" s="212"/>
       <c r="S15" s="129" t="s">
         <v>47</v>
       </c>
@@ -41234,10 +42815,10 @@
       <c r="P16" s="128">
         <v>4011</v>
       </c>
-      <c r="Q16" s="172">
+      <c r="Q16" s="209">
         <v>11</v>
       </c>
-      <c r="R16" s="173"/>
+      <c r="R16" s="210"/>
       <c r="S16" s="129" t="s">
         <v>47</v>
       </c>
@@ -41376,10 +42957,10 @@
       <c r="P17" s="128">
         <v>4012</v>
       </c>
-      <c r="Q17" s="170">
+      <c r="Q17" s="211">
         <v>17</v>
       </c>
-      <c r="R17" s="171"/>
+      <c r="R17" s="212"/>
       <c r="S17" s="129" t="s">
         <v>47</v>
       </c>
@@ -41518,10 +43099,10 @@
       <c r="P18" s="128">
         <v>4013</v>
       </c>
-      <c r="Q18" s="172">
+      <c r="Q18" s="209">
         <v>17</v>
       </c>
-      <c r="R18" s="173"/>
+      <c r="R18" s="210"/>
       <c r="S18" s="129" t="s">
         <v>47</v>
       </c>
@@ -41660,10 +43241,10 @@
       <c r="P19" s="128">
         <v>4014</v>
       </c>
-      <c r="Q19" s="170">
+      <c r="Q19" s="211">
         <v>24</v>
       </c>
-      <c r="R19" s="171"/>
+      <c r="R19" s="212"/>
       <c r="S19" s="129" t="s">
         <v>47</v>
       </c>
@@ -41802,10 +43383,10 @@
       <c r="P20" s="128">
         <v>4015</v>
       </c>
-      <c r="Q20" s="172">
+      <c r="Q20" s="209">
         <v>49</v>
       </c>
-      <c r="R20" s="173"/>
+      <c r="R20" s="210"/>
       <c r="S20" s="129" t="s">
         <v>47</v>
       </c>
@@ -41944,10 +43525,10 @@
       <c r="P21" s="128">
         <v>4016</v>
       </c>
-      <c r="Q21" s="170">
+      <c r="Q21" s="211">
         <v>34</v>
       </c>
-      <c r="R21" s="171"/>
+      <c r="R21" s="212"/>
       <c r="S21" s="129" t="s">
         <v>47</v>
       </c>
@@ -42086,10 +43667,10 @@
       <c r="P22" s="128">
         <v>4017</v>
       </c>
-      <c r="Q22" s="172">
+      <c r="Q22" s="209">
         <v>19</v>
       </c>
-      <c r="R22" s="173"/>
+      <c r="R22" s="210"/>
       <c r="S22" s="129" t="s">
         <v>47</v>
       </c>
@@ -42228,10 +43809,10 @@
       <c r="P23" s="128">
         <v>4018</v>
       </c>
-      <c r="Q23" s="170">
+      <c r="Q23" s="211">
         <v>26</v>
       </c>
-      <c r="R23" s="171"/>
+      <c r="R23" s="212"/>
       <c r="S23" s="129" t="s">
         <v>47</v>
       </c>
@@ -42370,10 +43951,10 @@
       <c r="P24" s="128">
         <v>4019</v>
       </c>
-      <c r="Q24" s="172">
+      <c r="Q24" s="209">
         <v>39</v>
       </c>
-      <c r="R24" s="173"/>
+      <c r="R24" s="210"/>
       <c r="S24" s="129" t="s">
         <v>47</v>
       </c>
@@ -42512,10 +44093,10 @@
       <c r="P25" s="128">
         <v>4020</v>
       </c>
-      <c r="Q25" s="170">
+      <c r="Q25" s="211">
         <v>35</v>
       </c>
-      <c r="R25" s="171"/>
+      <c r="R25" s="212"/>
       <c r="S25" s="129" t="s">
         <v>47</v>
       </c>
@@ -42654,10 +44235,10 @@
       <c r="P26" s="128">
         <v>4021</v>
       </c>
-      <c r="Q26" s="172">
+      <c r="Q26" s="209">
         <v>37</v>
       </c>
-      <c r="R26" s="173"/>
+      <c r="R26" s="210"/>
       <c r="S26" s="129" t="s">
         <v>47</v>
       </c>
@@ -42796,10 +44377,10 @@
       <c r="P27" s="128">
         <v>4022</v>
       </c>
-      <c r="Q27" s="170">
+      <c r="Q27" s="211">
         <v>32</v>
       </c>
-      <c r="R27" s="171"/>
+      <c r="R27" s="212"/>
       <c r="S27" s="129" t="s">
         <v>47</v>
       </c>
@@ -42938,10 +44519,10 @@
       <c r="P28" s="128">
         <v>4023</v>
       </c>
-      <c r="Q28" s="172">
+      <c r="Q28" s="209">
         <v>21</v>
       </c>
-      <c r="R28" s="173"/>
+      <c r="R28" s="210"/>
       <c r="S28" s="129" t="s">
         <v>47</v>
       </c>
@@ -43080,10 +44661,10 @@
       <c r="P29" s="128">
         <v>4024</v>
       </c>
-      <c r="Q29" s="170">
+      <c r="Q29" s="211">
         <v>18</v>
       </c>
-      <c r="R29" s="171"/>
+      <c r="R29" s="212"/>
       <c r="S29" s="129" t="s">
         <v>47</v>
       </c>
@@ -43220,10 +44801,10 @@
       <c r="P30" s="128">
         <v>4025</v>
       </c>
-      <c r="Q30" s="172">
+      <c r="Q30" s="209">
         <v>10</v>
       </c>
-      <c r="R30" s="173"/>
+      <c r="R30" s="210"/>
       <c r="S30" s="129" t="s">
         <v>47</v>
       </c>
@@ -43364,10 +44945,10 @@
       <c r="P31" s="152">
         <v>4026</v>
       </c>
-      <c r="Q31" s="174">
+      <c r="Q31" s="213">
         <v>13</v>
       </c>
-      <c r="R31" s="175"/>
+      <c r="R31" s="214"/>
       <c r="S31" s="153" t="s">
         <v>47</v>
       </c>
@@ -45115,11 +46696,11 @@
       <c r="I64" s="168"/>
       <c r="J64" s="159"/>
       <c r="K64" s="168"/>
-      <c r="L64" s="176" t="s">
+      <c r="L64" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="M64" s="176"/>
-      <c r="N64" s="176"/>
+      <c r="M64" s="215"/>
+      <c r="N64" s="215"/>
       <c r="O64" s="168"/>
       <c r="P64" s="168"/>
       <c r="Q64" s="168"/>
@@ -45167,9 +46748,9 @@
       <c r="I65" s="168"/>
       <c r="J65" s="159"/>
       <c r="K65" s="168"/>
-      <c r="L65" s="177"/>
-      <c r="M65" s="177"/>
-      <c r="N65" s="177"/>
+      <c r="L65" s="216"/>
+      <c r="M65" s="216"/>
+      <c r="N65" s="216"/>
       <c r="O65" s="168"/>
       <c r="P65" s="168"/>
       <c r="Q65" s="168"/>
@@ -45217,9 +46798,9 @@
       <c r="I66" s="168"/>
       <c r="J66" s="159"/>
       <c r="K66" s="168"/>
-      <c r="L66" s="177"/>
-      <c r="M66" s="177"/>
-      <c r="N66" s="177"/>
+      <c r="L66" s="216"/>
+      <c r="M66" s="216"/>
+      <c r="N66" s="216"/>
       <c r="O66" s="168"/>
       <c r="P66" s="168"/>
       <c r="Q66" s="168"/>
@@ -45267,9 +46848,9 @@
       <c r="I67" s="168"/>
       <c r="J67" s="159"/>
       <c r="K67" s="168"/>
-      <c r="L67" s="177"/>
-      <c r="M67" s="177"/>
-      <c r="N67" s="177"/>
+      <c r="L67" s="216"/>
+      <c r="M67" s="216"/>
+      <c r="N67" s="216"/>
       <c r="O67" s="168"/>
       <c r="P67" s="168"/>
       <c r="Q67" s="168"/>
@@ -45317,9 +46898,9 @@
       <c r="I68" s="168"/>
       <c r="J68" s="159"/>
       <c r="K68" s="168"/>
-      <c r="L68" s="178"/>
-      <c r="M68" s="178"/>
-      <c r="N68" s="178"/>
+      <c r="L68" s="217"/>
+      <c r="M68" s="217"/>
+      <c r="N68" s="217"/>
       <c r="O68" s="168"/>
       <c r="P68" s="168"/>
       <c r="Q68" s="168"/>
@@ -45507,6 +47088,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="L64:N68"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="P2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S4:AL4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="L1:L5"/>
@@ -45523,36 +47134,6 @@
     <mergeCell ref="K1:K5"/>
     <mergeCell ref="O1:O5"/>
     <mergeCell ref="P1:AR1"/>
-    <mergeCell ref="P2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S4:AL4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="L64:N68"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45577,7 +47158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA370860-48CD-4B92-B790-82066B2C7AEE}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -45648,10 +47229,10 @@
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="217"/>
+      <c r="B12" s="172"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -45682,7 +47263,7 @@
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="216" t="s">
+      <c r="A18" s="171" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="5"/>
@@ -45747,12 +47328,12 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="215" t="s">
+      <c r="A31" s="170" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="170" t="s">
         <v>125</v>
       </c>
     </row>
